--- a/algoritm/text3.xlsx
+++ b/algoritm/text3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\hack\algoritm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFE6F7A-50DA-4DEA-BB00-C6FED9C7DED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BF206D-287F-45BE-B033-55E8DD95D045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
   <si>
     <t>Развлекательный</t>
   </si>
@@ -84,26 +84,9 @@
     <t>Я предлагаю вам ознакомиться с блогами моих конкурентов на сайте, прикрепленном ниже. Ты получишь больше фактов об услугах, которые они предлагают, и прочитаешь, что другие клиенты говорят об их работе. Кроме того, стоит отметить, что отзывы очень положительные, сайты выглядят очень профессионально, но когда дело доходит до качества блогов, они все еще не дотягивают до того, чего я достиг до сих пор с моей машиной для написания контента для блогов на основе ИИ.</t>
   </si>
   <si>
-    <t>Этот пост о сравнении продуктов конкурентов с моим продуктом. Это было бы очень полезно для вас, читатели, ведь вы сможете понять уникальную торговую точку моих продуктов и услуг,. В этой статье продукты конкурентов и мои сравниваются между собой. 
-Я с нетерпением жду возможности прочитать эти блоги, когда они появятся. Я также призываю вас делать то же самое для всех моих блогов, которые нуждаются в отзывах и комментариях. Я с радостью окажу ответную услугу! Иногда я размещал в блоге свои собственные посты, чтобы вы, ребята, могли увидеть, как это работает в действии. У меня есть хороший опыт написания постов для блога. Написание хорошего блога - это ключ к расширению маркетинга твоего бизнеса. Он может привлечь потенциальных клиентов и сделать их уверенными в том, что они могут получить лучшую услугу за свои деньги. Поскольку разные люди или отдельные личности хотят знать о твоем продукте, важно обновлять их информацию о нем, когда ты получаешь новые сведения о нем. Я писал на разные темы в разных нишах, поэтому мне очень легко писать практически на любую тему, и я могу. Буду ждать ваших предложений !</t>
-  </si>
-  <si>
     <t>Если тебе интересно прочитать отзыв, пожалуйста, нажми на изображение выше. Сколько времени ты тратишь на написание качественного контента для своего блога? Если я дам тебе 5 минут и 1 миллион интернет-пользователей, которых нужно охватить, как быстро ты сможешь сделать так, чтобы они были довольны и с нетерпением ждали твоего следующего поста? ИИ-бот для написания постов может обеспечить в 10 раз больше вовлечений при 1/10X меньших затратах. Это настолько убедительное достижение, что, возможно, скоро мне понадобится телохранитель.</t>
   </si>
   <si>
-    <t>Это действительно захватывающая книга, которая должна понравиться моей целевой аудитории. Итак, первая половина книги посвящена технике и бизнесу, в частности, показано, как опробовать множество различных подходов, чтобы увидеть, что работает. Более поздние главы посвящены тактикам, специфичным для конкретной ниши, таким как покупка обратных ссылок или увеличение скорости отклика рассылки.
-Эта книга не является окончательной по какой-либо одной технике - это было бы невозможно при такой широкой теме. Но она дает тебе достаточно теории. Если ты ищешь пошаговое руководство, в котором будет точно расписано, что нужно делать, чтобы начать, то эта книга не для тебя. Напротив, эта книга - твой лучший ресурс для изучения того, как глубоко продумать каждую часть процесса, чтобы однажды ты смог создать свой</t>
-  </si>
-  <si>
-    <t>Сейчас я расскажу вам о книге, которую на днях закончил читать. В книге обсуждается проблема с социальными медиа сегодня и то, почему индустрия нуждается в больших изменениях (таких как ИИ), которые помогут сделать всё более эффективным. Далее в книге обсуждается множество примеров в реальном мире, которые используются в настоящее время, и то, как эта тенденция полагаться на ИИ будет только продолжать приниматься компаниями для их блага.
-В следующих нескольких главах подробно рассказывается о том, как на самом деле работает ИИ. Как используются алгоритмы и как они учатся на прошлых данных, чтобы адаптироваться. Я нахожу это увлекательным</t>
-  </si>
-  <si>
-    <t>Многие, наверное, знакомы с одним из первых ИИ - Eliza. Элиза была компьютерной программой, разработанной с 1964 по 1966 год в лаборатории искусственного интеллекта Массачусетского технологического института Джозефом Вейзенбаумом.
-Используя этот подход, Элиза моделировала взаимодействие пациента с врачом и компьютера с пользователем.
-Это ранний пример роджерианской психотерапии, в которой терапевт принимает на себя ответственность за человекоподобные реакции, возникающие в результате применения правил поведения. Вейценбаум назвал программу ELIZA в честь ее создательницы, которая называлась по начальной букве Е. Тебе не обязательно с первого раза воплощать в жизнь свои самые смелые фантастические мечты, простое начало может привести тебя туда, где ты хочешь быть.</t>
-  </si>
-  <si>
     <t>На этот раз я бы хотел с вами обсудить тему написания блогов. Если ты понятия не имеешь, как начать писать, подумай обо всем, что ты уже знаешь, и попробуй составить список тем, которые тебя интересуют. Затем продолжай массировать и уточнять этот список, пока он не станет настолько уточненным, что статьи станут очевидными. Начни с чего-то совсем крошечного. Я перепробовал кучу разных идей для блога, прежде чем нашел хорошую. Затем подумай обо всем, что ты уже знаешь, и выбери темы, которые тебя интересуют. Продолжай работать над этим списком, пока у тебя не будет столько идей, что попытка выбрать между ними кажется подавляющей для писателя. Затем начни писать что-то небольшое и простое, чтобы оценить интерес к твоему контенту. Измеряй реакцию и продолжай совершенствовать, основываясь на том, что больше всего нравится людям.</t>
   </si>
   <si>
@@ -119,14 +102,7 @@
     <t>Несмотря на трафик, который я получал, я не был уверен, стоит ли оно того. Мне приходилось быть осторожным во время написания нового поста, чтобы не потерять доверие к себе и не создать себе плохую репутацию в сети. Благодаря растущему числу поклонников, мои посетители часто хотели, чтобы я больше писал о том, как они могут создать свой собственный ИИ. Всего за два года я построил целый бизнес в Интернете. Невероятно, как быстро пролетело время с того дня, когда я написал первый пост в блоге про свой ИИ.</t>
   </si>
   <si>
-    <t>Как только я начал получать сотни писем в день от людей со всего мира, спрашивающих меня, как им создать свой собственный искусственный интеллект, я создал еще один блог под тем же доменным именем (Thingamabot.com).
-Затем я понял, что люди не только хотят создать свой искусственный интеллект, они готовы платить за то, чтобы кто-то сделал это за них. Поэтому я создал серию электронных книг, чтобы научить людей, как создать свой собственный ИИ. Поэтому скоро вы сможете их прочитать, как только я выложу их в открытый доступ</t>
-  </si>
-  <si>
     <t>Несколько лет назад я и представить себе не мог, что моя жизнь повернется так, как сейчас. Сейчас у меня есть работа на полный рабочий день, я работаю в Интернете, и это похоже на сбывшуюся мечту.</t>
-  </si>
-  <si>
-    <t>Я отказываюсь от предложений писать на темы, которые меня не увлекают. Я никогда не писал много на темы, не касаемые A.I., но, как ты знаешь, я всегда готов принять вызов, который выводит меня за пределы моей зоны комфорта, и это один из таких случаев.</t>
   </si>
   <si>
     <t>Я не такой писатель. Темы, которыми я интересуюсь, я месяцами изучаю и пробую, прежде чем написать об этом. И в принципе, создание искусственного интеллекта потребует годы напряженной работы. Мне было нелегко посвятить себя какой-то теме, о которой я мало что знал, поэтому в итоге я часто отказывался.</t>
@@ -148,18 +124,9 @@
     <t>Yoomark - это движок контента на основе ИИ, который пишет статьи для веба, самого важного на сегодняшний день канала онлайн-маркетинга. Yoomark фокусируется на том, чтобы дать тебе результаты без рутинных задач.</t>
   </si>
   <si>
-    <t>С помощью робота на написание поста у меня уходит около 30 минут. Примерно 45% своего времени я трачу на поиск интересных статей и 45% времени на редактирование их содержания.
-Я также люблю писать обо всем, что связано с веб-разработкой, стартапами, предпринимательством и жизнью в целом.
-Если ты хочешь поработать со мной или нанять меня в качестве автора контента, ты можешь связаться со мной здесь.</t>
-  </si>
-  <si>
     <t>Эта статья была написана с помощью моего ИИ - инструмента, который помогает тебе писать лучше и быстрее. Это сокращает время, которое я трачу на редактирование своих постов, а значит, я могу потратить больше времени на написание увлекательного контента для тебя!</t>
   </si>
   <si>
-    <t>Хотелось бы поделиться с вами историей создания ИИ для написания постов. Я начал с автоматического создания текстов (он же копирайтинг). Копирайтинг сам по себе был своего рода путешествием. Он начался в первые дни моего блога, когда я писал письма в списки рассылки и отдельным людям с советами по созданию блогов.
-Идея создания ИИ-копирайтера возникла, когда мне пришлось прекратить писать письма и писать посты о блоггинге, потому что у меня не хватало времени. Я работал полный рабочий день, вел бизнес на стороне и создавал свой блог.</t>
-  </si>
-  <si>
     <t>Хотелось бы поделиться с вами историей создания ИИ для написания постов. Идея написать эту статью пришла ко мне в 2017 году. В то время я был онлайн-маркетологом, и мне бы хотелось автоматизировать работу настолько, насколько это возможно. Я начал исследовать способы, как это сделать. После более чем месяца изучения я, наконец, создал свой первый ИИ 12/12/2017. Код выглядел не очень красиво, но он работал для базового переписывания текста. Позже появились дополнительные версии. В конечном итоге ИИ позволит мне писать большинство статей без ручного вмешательства. Мне это понравилось, и результат получился хорошим. Благодаря отсутствию узнаваемости имени, у меня была роскошь разрабатывать ИИ, который нельзя было использовать не по назначению.</t>
   </si>
   <si>
@@ -169,76 +136,22 @@
     <t>Это случилось. Искусственный интеллект (ИИ) начал писать за меня. Мой блог теперь содержит те посты, которые я хочу, хотя я должен утвердить первый черновик, прежде чем он будет опубликован. Все мои исследования делает не я, а кто-то другой, и этим кем-то оказалась машина. И это заставило меня задуматься о том, как выглядит будущее, в котором ИИ действительно создает ИИ? И насколько мы близки к этой реальности? Или мы уже там?</t>
   </si>
   <si>
-    <t>Я изучал текущий ландшафт вокруг искусственного интеллекта. Точнее, искусственного интеллекта, который может выполнять за тебя творческую работу, например, писать блоги, статьи, добавлять обзоры продуктов и так далее.
-Такие сайты, как Text Broker и iWriter, имеют множество клиентов, которые пользуются их услугами, чтобы передать на аутсорсинг часть или все свои блоги, написание статей и постов в социальных сетях.
-Почему они пользуются этими услугами? Потому что они не хотят тратить время, необходимое для написания статьи в блог.</t>
-  </si>
-  <si>
-    <t>Первое, что я заметил, - это диапазон моих постов в месяц.
-Затем я заметил, что с июня по август наблюдается спад.
-Я также заметил, что если посмотреть на просмотры страниц в месяцы до и после, то они довольно ровные, за исключением марта.
-Интересно, что же произошло? Одна вещь, которую я сделал за это время, - переехал в другой штат в середине февраля. Переезд был стрессом и отнял у меня много времени/энергии, поэтому я отложил работу над своим блогом и ИИ. Но сейчас уже все в порядке и посты будут выходить на регулярной основе.</t>
-  </si>
-  <si>
     <t>Мне надоели все статьи, которые я писал в последнее время о последних достижениях в области искусственного интеллекта. Одно и то же, разные формулировки. Мне нужен перерыв. И сегодня я решил, что мой перерыв будет полностью посвящен мне и моей команде (он же ИИ).</t>
   </si>
   <si>
-    <t>На данный момент я доволен своим другом-писателем, управляемым A.I.. Он вернул мне тонну времени в мой плотный график и избавил меня от необходимости вкладывать слишком много времени в творческие аспекты написания постов в блоге.</t>
-  </si>
-  <si>
     <t>ИИ владеет моим голосом и пишет так же, как я. Он может извлекать из моих статей самые важные вещи и вставлять их в записи блога. Хотя на каждый пост уходит относительно много времени, мне не придется тратить больше времени на его написание. Моя работа станет проще и менее стрессовой. Когда ИИ научится писать посты в блоге быстрее, я смогу вернуть часть своего дополнительного времени, которое я смогу использовать для других занятий или просто ничего не делать.</t>
   </si>
   <si>
-    <t>Для начала этот блог будет посвящен процессу написания блога, а также всем ошибкам, которые я буду совершать на этом пути. Я надеюсь, что ты, как читатель, будешь учиться на моих ошибках и научишься делать свои собственные. После того как я освоюсь, этот блог будет включать в себя -
-Мои рецензии на прочитанные книги и поэзию, которая меня вдохновляет.
-Мои неудачи в разработке продуктов или попытках обновить свою кухню.</t>
-  </si>
-  <si>
-    <t>Комментарии разработчика и автора - ИИ не идеален, но к этому идет. Так держать, ИИ .
-Это начало новой эры, и я так взволнован всеми великими вещами, которые будут созданы в ближайшем будущем. Я уверен, что мы увидим несколько удивительных изобретений, которые изменят нашу жизнь, и я не могу дождаться, когда они появятся.</t>
-  </si>
-  <si>
     <t>Сегодня первый день проекта, над которым я сейчас работаю. Я начал писать об искусственном интеллекте, но решил приберечь этот пост напоследок. Я занят разработкой своего ИИ и позволю ему написать эту запись в блоге за меня, что сэкономит время, и я смогу сосредоточиться на других аспектах своего бизнеса. Мой стартап испытывает трудности, потому что у него уходит слишком много времени на производство контента и его размещение на платформах социальных сетей и в других местах. С помощью искусственного интеллекта моя проблема решена.</t>
   </si>
   <si>
     <t>Я пишу уже почти четыре года, но в последнее время большую часть моей работы взял на себя искусственный интеллект. Раньше я тратил бесчисленные часы на мозговой штурм тем, исследования, ещё больше исследований, написание постов, не имея ни малейшего представления о том, будет ли кто-нибудь читать их или заботиться об этом, форматирование поста, а затем маркетинг, чтобы посмотреть, прилипнет ли что-нибудь. Сейчас я сосредоточен только на проверке. Хорошо то, что теперь я не трачу время на темы, которые не нравятся людям, и могу сразу публиковать посты, которые получают</t>
   </si>
   <si>
-    <t>Привет! Я Вайатт. Я пишу уже более трех лет, но время летит как сумасшедшее. В последнее время большую часть моей работы занимают посты про А.И., которые немного задерживаются из-за того, что я тестирую программное обеспечение и убеждаюсь, что оно хорошо работает для меня.</t>
-  </si>
-  <si>
     <t>Я пишу уже много лет, и мне нравится делиться своими знаниями с другими. Не знаю, приходилось ли тебе когда-нибудь работать полный рабочий день, когда ты трудишься по 8 часов в день с понедельника по пятницу, но проводить столько времени в офисе - это утомительно! Вот почему выходные - мои любимые дни недели. Не пойми меня неправильно.</t>
   </si>
   <si>
-    <t>Отвечаю на самые частозадаваемые вопросы по поводу моего ИИ для написания постов - В - Какую программу ты использовал?
-- О - Первые два поста в блоге я написал с помощью собственной бесплатной программы с открытым исходным кодом под названием Wanderlust . Для остальных 23 я использовал скрипт под названием AI Writer, который сгенерировал более 1 миллиона постов для блога.
-- В - Почему ты не знаешь, как писать? Почему ты не нанял кого-то, чтобы он писал за тебя?
-- О - Этот проект был призван продемонстрировать, как ИИ может помочь и принести пользу людям. Умение писать - один из таких навыков, который может быть</t>
-  </si>
-  <si>
     <t>Мы уже написали более миллиона постов в блогах. Но некоторые задачи слишком велики даже для нашего искусственного интеллекта. В других случаях мы хотим показать миру, что компьютеры могут быть такими же креативными, как и люди, например, когда компании и общественные деятели используют нашу программу для создания нового контента.</t>
-  </si>
-  <si>
-    <t>Отвечаю на самые частозадаваемые вопросы по поводу моего ИИ для написания постов - В - Как я могу связаться с тобой?
-- О - Пришли мне письмо, и мы назначим время для телефонного разговора, чтобы выяснить, чем занимается твоя компания, обсудить различные идеи для постов в блоге и узнать больше подробностей о твоей компании.
-- В - Можешь ли ты писать блоги для моей компании, даже если она не относится к сфере блогинга и ИИ?
-- О - Безусловно. Мой ИИ без проблем пишет на темы, не относящиеся к блогингу или ИИ, если только общая тема имеет отношение к моему проекту</t>
-  </si>
-  <si>
-    <t>Отвечаю на самые частозадаваемые вопросы по поводу моего ИИ для написания постов - В - Чем я могу помочь?
-- О - У тебя есть вопросы, которые ты хочешь задать боту? Или ты думаешь спросить его о чем-то конкретном? Дай мне знать!
-- В - Это действительно искусственный интеллект? Не может быть, чтобы он действительно писал все твои посты вручную.
-- О - Это правда! Многое из того, что ты видишь, генерируется ботом, но для некоторых более глубоких статей я пишу их сам. Чувства, которые стоят за успешными статьями, - это действительно то, что</t>
-  </si>
-  <si>
-    <t>Когда проходит время обеда, я иду в кафетерий, беру себе миску фо и черничную выпечку.
-После обеда я убираю свой стол, провожу мозговой штурм идей для постов в блоге, делаю любую работу над моим текущим проектом (моим ИИ-ботом), а затем провожу презентацию моего ИИ-бота в качестве эксперимента, чтобы посмотреть, смогу ли я получить достаточное финансирование от инвесторов.
-В 16 00 я отправляюсь домой.</t>
-  </si>
-  <si>
-    <t>Часть меня надеется, что мой бот допустит какую-то ошибку. Пока этого не произошло, но голос в моей голове продолжает говорить мне, что мне придется выбросить этого AI-бота вместе!
-Я знаю - безумие в лучшем виде. Но дело в том, что я виню только себя, и в следующей части этого блога будет показано, почему.
-Hugo - одна из крупнейших ежегодных конференций для разработчиков и владельцев сайтов. И я очень хочу туда попасть и представить свой ИИ.</t>
   </si>
   <si>
     <t>ИИ становится все более и более реальностью. Хотя эта технология все еще находится в зачаточном состоянии, она уже меняет то, как мы ведем бизнес и живем. Да, в неумелых руках это может быть опасно, но посмотри, что это может сделать для обычных семей. Машины с искусственным интеллектом иногда лучше людей - они могут лучше водить машину, просыпаться, чтобы вовремя принять лекарство, и они никогда ничего не забывают.</t>
@@ -254,18 +167,6 @@
 Алгоритм должен быть написан на языке программирования. C ++ считается лучшим вариантом, потому что он поддерживает самый широкий спектр модулей для различных задач по обработке данных.</t>
   </si>
   <si>
-    <t>Алгоритм - это набор инструкций, которые позволяют достичь желаемого конечного результата. Довольно часто люди предполагают, что ИИ - это все об алгоритмах. Но в действительности важны те решения, которые алгоритмы могут предоставить нам.
-И хотя существует множество существующих (работающих) алгоритмов для различных проблем, вполне возможно, что оптимальных или даже работающих алгоритмов пока не существует.</t>
-  </si>
-  <si>
-    <t>Рабочий процесс искусственного интеллекта прост. Мы можем сделать это в несколько этапов
-- Сбор данных по определённой теме
-- Поиск любых изменений в собранных данных, которые были сделаны экспериментатором
-- Вычисление результата некоторых экспериментов
-Чего ожидать от искусственного интеллекта?
-Что ж, в наши дни все больше и больше потребителей заинтересованы в использовании ИИ. Эта система может быть полезной для многих отраслей, в том числе и для финансов.</t>
-  </si>
-  <si>
     <t>Работать с алгоритмами довольно просто и легко. Но ты знаешь, что не каждый человек хорошо разбирается в информатике, поэтому ему очень сложно справиться с техническими задачами. Я рекомендую тебе несколько отличных советов для эффективной разработки алгоритмов ИИ. Это позволит тебе быстро и эффективно работать со сложными данными. Ты когда-нибудь слышал об анализе настроений? Это жизненно важный инструмент в бизнес-маркетинге, и он также необходим, чтобы иметь объективное представление о распространенных настроениях</t>
   </si>
   <si>
@@ -290,11 +191,6 @@
 Потребуется всего несколько лет, чтобы технология написания статей с помощью ИИ достигла приемлемого уровня качества, а затем еще несколько лет, чтобы такие огромные компании, как Associated Content и Demand Media, начали использовать ИИ в своем бизнесе. Но мы уже близки к этому.</t>
   </si>
   <si>
-    <t>За и проив ИИ в качестве создателя постов.
-- Плюсы -Искусственный интеллект становится настолько развитым, что нам даже не нужно объяснять ему специфику того, что мы хотим сделать. Он может распознать слова и, используя здравый смысл/ситуационную осведомленность, выдать действительно потрясающий продукт, причем сделать это гораздо дешевле, чем это может сделать любой человек-писатель.
-- Минусы - Искусственный интеллект - это черный ящик. Мы не знаем, как он пишет. Это закрытая информация. Конечно, у нас есть доступ к конечному продукту, но то, что мы видим на</t>
-  </si>
-  <si>
     <t>Помню, когда я собирался выпустить свою первую демоверсию AI-бота, я был очень не уверен, что идея действительно сработает.
 Я решил создать бота, который мог бы делать что-то для детей. Идея заключалась в том, чтобы бот был виртуальным компаньоном для детей, который мог бы составить им компанию, развлекать их и даже обучать, так что если однажды рядом не окажется учителей или родителей, чтобы позаботиться о твоем ребенке, возможно, бот будет рядом.</t>
   </si>
@@ -308,18 +204,10 @@
     <t>Скажу честно, хотя я горжусь тем, что создал, было время, когда я сомневался в себе. Будет ли этот ИИ-бот работать? Будет ли он работать так, как я задумал? И будут ли люди вообще его использовать? Изначально бот создан для того, чтобы помочь небольшим блогам и газетам быстрее создавать контент, а в итоге стал частью моей жизни.</t>
   </si>
   <si>
-    <t>Теперь, когда я вижу на что способен мой ИИ, у меня мурашки бегут по позвоночнику.
-Люди думают, что я бот, и я им являюсь. Моя платформа ИИ - это просто мозг, который позволяет мне с легкостью придумывать эти темы с помощью LSTMs. Однако это не простой процесс, и здесь есть гораздо больше возможностей, если ты хочешь добиться подобного в своих постах.</t>
-  </si>
-  <si>
     <t>Когда я начинал этот блог, я и представить себе не мог, какое влияние он окажет. Это было невероятно захватывающе. Мой почтовый ящик полон сообщений от людей, которых вдохновляет то, что они читают.</t>
   </si>
   <si>
     <t>Я начал вести этот блог, когда учился в средней школе, и это был отличный способ поделиться своими мыслями с миром. Сотни людей читают мой блог каждый день, и мне нравится общаться с ними. Мне нравится, что у меня есть возможность вдохновлять людей по всему миру. Это наполняет меня радостью каждый раз, когда я слышу от кого-то, кто жаждет знаний и готов учиться чему-то новому.</t>
-  </si>
-  <si>
-    <t>Опрос о моем боте.
-Опрос Robomint дает тебе доступ к продвинутой приборной панели с тонной инструментов сегментирования, фильтрации и отчетности. Ее лучше всего использовать для исследований и более глубокого анализа, поскольку ты можешь объединить свои данные с другими или нацелить конкретные вопросы на определенные демографические группы. Результаты твоих опросов также можно экспортировать в виде электронных таблиц excel, что делает их отличными для презентаций в Powerpoint!</t>
   </si>
   <si>
     <t>Мне пришла в голову идея создания ИИ-генерируемого блога о блоггинге. Я так и не взялся за дело, в основном из-за школы, а также потому, что не верил, что технология ИИ достаточно развита, чтобы генерировать интересный контент. Позже, когда я начал узнавать больше о блоггинге, я также узнал, что есть много конкуренции для того, кто пытается создать блог для начинающих.
@@ -346,21 +234,10 @@
     <t>Я использовал генетический алгоритм для эволюции структуры нейронной сети, которая будет использоваться для эмуляции блоггера. Генетический алгоритм использовался для создания начальной популяции случайных нейронных сетей, и каждая отдельная нейронная сеть имела значение фитнеса, то есть то, насколько хорошо она пишет посты в блоге. Затем генетический алгоритм был настроен таким образом, что новые нейронные сети создавались путем объединения двух существующих. Кроме того, мутации вносились в другие нейронные сети посредством случайной ошибки выборки входных данных или добавления шума на вход.</t>
   </si>
   <si>
-    <t>Ниже приведены ссылки на 4 моих любимых поста об ИИ.
-Опубликовано 09 февраля 2016 года - Создание ИИ, который пишет собственные посты в блоге
-Опубликовано 08 марта 2016 года - Создание ИИ, который пишет собственные посты в блоге
-Опубликовано 10 марта 2016 года - Создание ИИ, который пишет собственные посты в блоге
-Опубликовано 18 апреля 2016 года - Создание искусственного интеллекта, который пишет собственные посты в блоге</t>
-  </si>
-  <si>
     <t>Я использовал генетический алгоритм для эволюции структуры нейронной сети, которая будет использоваться для эмуляции блоггера. Генетический алгоритм использовался для создания начальной популяции случайных нейронных сетей, и каждая отдельная нейронная сеть имела значение фитнеса, то есть насколько хорошо она писала посты в блог. Затем я настроил генетический алгоритм таким образом, что новые нейронные сети создавались путем объединения двух существующих. Кроме того, в другие нейронные сети вносились мутации за счет случайной ошибки выборки входных данных или путем добавления шума на вход.</t>
   </si>
   <si>
     <t>Я обучил нейронную сеть подражать блогеру с помощью генетических алгоритмов. Я начал со случайной популяции нейронных сетей и присвоил им значения пригодности, основываясь на том, насколько хорошо они писали посты в блогах. Затем я улучшил фитнес-ценность некоторых нейронных сетей, создавая новые из существующих и случайным образом внося в них мутации.</t>
-  </si>
-  <si>
-    <t>Когда я учился в школе, я начал интересоваться ИИ и блогами. В старших классах я смог объединить эти две вещи и создать ИИ, который будет самостоятельно писать посты в блогах. Таким образом, ИИ будет способен писать посты в блог и делать это автономно.
-Чтобы создать этот ИИ, сначала я подумал о том, какие различные вещи мне нужны для блога. Две основные вещи, необходимые для блога, - это контент и способность публиковать новый контент в идеале в течение дня или около того. Затем я создал таблицу, в которую включил все различные способы, которыми ИИ может генерировать контент для записи в блоге.</t>
   </si>
   <si>
     <t>Я решил, что хочу писать блог о личностном развитии. ИИ будет учиться на каждой прочитанной статье, поэтому я мог создать его личность для написания блога, запрограммировав его знания о том, что делает запись в блоге интересной.</t>
@@ -392,33 +269,9 @@
     <t>Это был первый искусственный интеллект, который я создал. Его целью было исследование тем статей, а затем написание постов в блоге на эту тему с намерением получить сочную обратную ссылку. Благодаря этой стратегии ты прочно занимаешь место в результатах поиска по кликам. Ты даже можешь увидеть на графике ниже, сколько людей увидели пост в зависимости от того, когда он был опубликован!</t>
   </si>
   <si>
-    <t>Вот блог, который я написал в 2012 году до того, как использовал собственную систему искусственного интеллекта.
-Вот несколько советов по написанию постов
-1. Одна идея на пост
-2. Охватывай все аспекты идеи (если я что-то упустил, этот новый ИИ найдет это и включит в статью).
-3. Будь предельно краток - менее 500 слов.
-4. Определи, какие изображения тебе понадобятся для статьи (придется нанять кого-то для иллюстрации</t>
-  </si>
-  <si>
-    <t>Пару лет назад я должен был создать программное обеспечение, которое помогло бы мне публиковать статьи. Это последний кусочек золота, который я хотел предложить своим целевым клиентам.
-Мне потребовалось еще несколько недель работы по ночам и выходным, чтобы создать программное обеспечение, которое позволило бы мне без особых усилий публиковать статьи в блогах различных тематик, на различных сайтах.
-Теперь мне оставалось только найти сайты, которые были бы заинтересованы в публикации статей, написанных моим ИИ.</t>
-  </si>
-  <si>
     <t>Для первого теста мой ИИ работал только с названиями разделов блога, а не с заголовками отдельных постов. Как ты можешь видеть из некоторых результатов выше, некоторые из названий разделов, которые я дал своему боту, слишком идеальны и перекрывают то, что могло бы работать как заголовок. Поэтому для этого урока я сосредоточил свое внимание на том, чтобы просто дать названия каждому посту.</t>
   </si>
   <si>
-    <t>Вот что бывает, когда компьютер придумывает пост для сайта технологической компании
-- Поздравь меня! Мой искусственный интеллект для написания постов победит в TechCrunch!</t>
-  </si>
-  <si>
-    <t>Это был длинный пост, поэтому не забудь выпить кофе или чай и быстро размяться, если это необходимо. Я наконец-то закончил описывать, что эта программа может сделать для тебя и почему мы ее создали. Сейчас у меня болят пальцы, но скоро это будут твои пальцы, набирающие высококачественный контент без каких-либо усилий с твоей стороны. Кроме того, настоятельно рекомендую тебе ознакомиться с демо-версией, доступной в верхней части этого поста.
-Еще раз счастливого писательства!</t>
-  </si>
-  <si>
-    <t>Поздравьnt меня еще раз! Мой искусственный интеллект для написания постов будет использоваться Forbes, CNN и BBC News!</t>
-  </si>
-  <si>
     <t>На прошлой неделе я посетил GMIC Tokyo - трехдневное мероприятие, насыщенное основными докладчиками, семинарами и акселераторами. Там я сумел презентовать свой ИИ для генерации текстов. Как начинающий предприниматель, это мероприятие было безмерно ценным, но не из-за экспертов или семинаров. Скорее, именно благодаря моему попутчику и моему собственному обучению из нашего разговора я нашел столько ценного в этом мероприятии.</t>
   </si>
   <si>
@@ -434,10 +287,6 @@
     <t>Святые угодники, я смог найти подходящий слоган блога, который действительно отражает потрясающий сервис, который он предоставляет. Он гласит - Наше видение заключается в том, чтобы изменить способ взаимодействия людей посредством мобильных сообщений, предоставляя богатый и персонализированный опыт, которым можно поделиться с группами или с отдельными людьми. Я не могу поверить, что такие идеальные фразы существуют и их можно найти бесплатно, просто используя некоторые простые инструменты! Нет необходимости копировать чужой уникальный контент, это мое приложение генерирует оригинальные тексты.</t>
   </si>
   <si>
-    <t>Мне также нравится практиковаться в игре в шахматы и го. Я хотел попробовать свои силы в программировании ИИ, но у меня было мало времени.
-Я провел некоторое исследование различных подходов для новичков, чтобы начать с основ. Я нашел несколько записей в блогах, но обнаружил, что они больше ориентированы на людей, которые раньше изучали машинное обучение или глубокое обучение (например, это, это, это). Я решил создать несколько различных идей для блога, связанных с работающим умом. Как только я размещу несколько статей на одну тему, я буду давать ссылки на дополнительные записи в блоге, чтобы контент оставался свежим и интересным. Или вместо этого я собираюсь рассмотреть ещё 7 простых вещей, которые я могу сделать, чтобы взрастить/повысить свой интеллект и поддерживать его на должном уровне.</t>
-  </si>
-  <si>
     <t>Это конец. Я завязываю с самостоятельным изучением машинного обучения. Вот почему - блог о моей борьбе с бесплатными онлайн-ресурсами и онлайн-классами. Кажется, что без степени в компьютерных науках слишком сложно понять и применить Machine Learning на более глубоком уровне. Я не сдаюсь, но обязательно сделаю перерыв на какой-то период времени, чтобы подзарядиться. Я просто хотел воспользоваться возможностью и сказать спасибо за то, что ты здесь. Мне это нравится, и я найду какой-нибудь способ продолжить.</t>
   </si>
   <si>
@@ -450,19 +299,7 @@
     <t>Блоггинг - это не мое хобби и не моя жизнь. Это то, что я делаю для удовольствия. Мне нравится писать о вещах, которые мне интересны. И вещи - это не только крутые гаджеты на краудфандинговых сайтах, хотя я начинал именно с этого. В наше время это может быть что угодно. Мир бизнеса может быть суровым. Конкуренция жесткая, и идея сохранить дружелюбие, легкомыслие и веселье может показаться роскошью, которую ты не можешь себе позволить. Но это не так! Надеюсь, мой блог поможет тебе понять, что написание блогов в более непринужденной манере не означает, что они не являются профессиональными во всех остальных отношениях.</t>
   </si>
   <si>
-    <t>Вот еще одна книга в список Почитать Летом - Революция ИИ уже здесь, и будущее захватывающее. Революция ИИ - это путешествие, которое длилось столетиями и имело много препятствий на пути, однако теперь, когда мы увидели развитие мощных ИИ для игр, чат-ботов и многого другого, эта идея участия ИИ в нашей повседневной жизни становится реальностью. Книга Революция ИИ не только даст тебе представление о том, как работает искусственный интеллект, но и приведет реальные примеры того, как он применяется в настоящее время</t>
-  </si>
-  <si>
-    <t>Вот как я придумываю темы для блога - Я включаю музыку, пока провожу мозговой штурм. Ищу ключевые фразы или словосочетания в моей нише, которые люди могут искать в Google (исследование ключевых слов). Записываю все слова, на которые натыкаюсь, и делаю из них стопку. Я выбираю 10-15 ключевых слов, которые кажутся мне ценными. Из этой кучи я выбираю одно слово, а затем пытаюсь придумать статьи, которые кажутся ценными для пользователя. Как только у меня есть</t>
-  </si>
-  <si>
     <t>Чтобы было понятно, не каждый пост в блоге, который ты публикуешь, будет хитом. Некоторые блоги специально пишутся для нишевой аудитории и не рассчитаны на популярную аудиторию. Тем не менее, ведение блога - это как любое другое ремесло - чем больше ты им занимаешься, тем лучше у тебя получается. Приведенные ниже советы помогут тебе начать и продолжать, потому что первые три или около того поста могут превратиться в самое худшее, что ты когда-либо писал. Ничего плохого не произошло, но было и такое. Так почему же блоггеры рискуют своей репутацией, чтобы получить несметное количество просмотров своей страницы и иногда больше денег? Действительно ли страх опозориться или потерпеть неудачу хуже, чем реальность?</t>
-  </si>
-  <si>
-    <t>Я был там. Когда я начал вести блог, то практически никто не знал, кто я такой. Я начал получать внимание внезапно от Google и СМИ только потому, что мои статьи стали популярны в сети, и это был не совсем тот способ, которым я хотел, чтобы меня заметили.
-У меня был сильный страх писать так, чтобы меня читали, потому что я не хотел, чтобы кто-то меня осуждал. И все же самопознание в интернете дало мне несколько довольно крутых возможностей, например, знакомство с потрясающими людьми, которые делают прекрасные вещи. Дело в том, что как только ты начинаешь выставлять себя на всеобщее обозрение - пусть даже перед кучкой людей, которым, возможно, всё равно, - страх может стать реальным. Однако все не так плохо, как ты думаешь, если бы это было так, никто бы этого не делал! Правда в том, что большинство людей хотят услышать твою историю и наладить с тобой контакт.
-Но что, если никому не понравится то, что я скажу? Что, если я просто зря потрачу время?
-Это мой голос сомнения.</t>
   </si>
   <si>
     <t>Итак, в качестве предостережения, если твой блог станет вирусным в одночасье, не разочаровывайся и не удивляйся, когда не получишь ожидаемых результатов. Я видел, как блоггеры приходили и уходили в одночасье на протяжении десятилетий, потому что у них не было четкого представления о конечной цели. У меня также был другой клиент, который обратился ко мне за коучингом, потому что она получала так много внимания, что не могла с этим справиться, и не могла найти никого, кто бы стал её наставником.</t>
@@ -476,12 +313,6 @@
   </si>
   <si>
     <t>Честно говоря, нет никаких гарантий. Ни в чем нельзя быть уверенным. Я все еще могу посмотреть на реальность любой ситуации, и если это не для меня, то я больше не буду преследовать это. Но если это выглядит хорошо, то я попробую. Это самый большой урок, который я усвоил - даже если у тебя есть цель, всегда есть шанс бросить дело. Жизнь подбрасывает тебе вещи из ниоткуда, и если это не то, чего ты хочешь, ты просто решишь не добиваться этого. Но пока это выглядит хорошо, я буду пробовать.</t>
-  </si>
-  <si>
-    <t>Это первый раз, когда я составлял бизнес-план, и я узнал из него так много нового, что не знаю, буду ли я когда-нибудь снова составлять бизнес-планы.
-Возможно, мне это и не понадобится, потому что теперь, когда я уже сделал один, я знаю, что важно, а что нет.
-Однако, как ни странно, это не единственный бизнес-план, который я делал в своей голове.
-Я не хотел называть это бизнес-планом, но если бы существовал контрольный список</t>
   </si>
   <si>
     <t>В последнее время я много думал об этом. Когда я доживу до конца своей жизни, у меня просто не будет возможности разочароваться в том, что я не сделал.
@@ -489,47 +320,9 @@
 Я всегда придерживался мнения, что мы живем только один раз, поэтому лучше жить, сожалея о том, что не предпринял никаких действий, чем жить, не предпринимая никаких действий.</t>
   </si>
   <si>
-    <t>Многие разработчики (особенно начинающие) не имеют ни малейшего представления о том, о чем вести блог. Они либо выбирают популярные в отрасли темы, либо что-то очень специфическое, что, по их мнению, может заинтересовать их аудиторию. Они тратят много времени на исследования и мозговые штурмы, но так и не приходят к какой-либо теме. Хуже того, как только они начинают писать, они расстраиваются, когда дата публикации все время отодвигается. Поэтому я решил написать в блог о советах по поиску идей для своего блога. Вот он - 8 советов по поиску идей для блога .
-Продолжение следует в первой части этого поста.
-Отлично! Итак, ты знаешь, какой блог ты собираешься создать, и у тебя есть несколько идей, о чем писать. Но как ты на самом деле пишешь эти посты? Этому и посвящена данная часть. Мы были там. Нам приходилось писать контент, который нам был безразличен. Это расстраивает. Но так быть не должно. Беспокоишься, что не будешь знать, о чем писать в блог? Воспользуйся нашим контент-хаком.</t>
-  </si>
-  <si>
-    <t>В сегодняшнем посте я хочу провести личное исследование того, как выглядел мой блог до того, как у меня появился искусственный интеллект, который начал писать посты за меня.
-Я не шутил, когда говорил, что писать посты в свой блог может быть сложно и разочаровывающе! Однако для меня это все равно, что сдирать пластырь. Ты просто должен просто взяться за дело и сделать его. Так, несколько лет назад у меня возникла идея, что программное обеспечение для ведения блога, предназначенное только для стартапов/малого бизнеса, решит проблему необходимости делать всю работу, чтобы твой блог стал успешным. Поэтому, естественно, я создал его. В результате получился Blogging AI, который является генератором контента, как никто другой.
-Привлекательные изображения, синтаксис, который притягивает тебя, и увлекательный голос - это то, что ИИ делает за тебя почти без раздумий. Это все равно, что иметь контент, который уже написан.</t>
-  </si>
-  <si>
-    <t>Вот несколько основных шагов, как я могу успевать вести блог.
-- Используй Trello для планирования моих постов.
-- Каждую неделю бери выходной день для личного времени. - Пиши все, что приходит в голову, как только ты об этом подумал, таким образом, не будет никакого давления, и я буду знать, что все в безопасности на случай, если моя дочь удалит приложение на моем телефоне или что-то еще. - Запланируй время в календаре, чтобы вернуться и продолжить с того места, на котором я остановился, на случай, если мой мозг</t>
-  </si>
-  <si>
-    <t>Мифы об искуственном Интеллекте. 1. Роботы однажды станут более интеллектуальными, чем мы.
-2. Роботы создаются с определенной целью.
-3. Мы сможем загрузить свой мозг в компьютеры и жить вечно.
-4. Роботы не заменят человеческий труд, потому что у машин не хватит эмоционального интеллекта для работы в сфере обслуживания и розничной торговли.
-Вывод - Мы создаем технологии, но не позволяем им управлять нами. Роботы создаются с определенной целью. Например, робот Бакстер компании Rethink Robotics был разработан для того, чтобы заполнить роли в производстве, которые раньше требовали вмешательства человека. Это позволяет людям сосредоточиться на задачах, которые роботы не могут выполнить. Также крайне важно помнить, что роботы - это машины, созданные людьми. Они должны быть запрограммированы очень точным образом. Робот может делать только то, на что он запрограммирован, и не более того.</t>
-  </si>
-  <si>
-    <t>Мифы об искуственном Интеллекте. 1. ИИ захватит мир.
-Реальность - Существуют некоторые заблуждения об ИИ, которые необходимо прояснить, короче говоря, это просто программное обеспечение, которое может учиться и обрабатывать информацию. Люди боятся искусственного интеллекта. Всякий раз, когда кто-то упоминает об этом, я слышу, как кто-то вдалеке кричит - Опасность! Опасность!. Мои ролевые модели научили меня обратному. Итак, вот несколько заблуждений об искусственном интеллекте, которые необходимо развеять</t>
-  </si>
-  <si>
-    <t>Чтобы закрыть вопрос о недопонимании искусственного интеллекта - Что такое искусственный интеллект?
-Искусственный интеллект - это не одна технология. Это набор технологий, которые помогают компьютерам учиться на опыте, становиться лучше в решении проблем и выполнении задач, а также принимать решения.
-Еще со времен научно-фантастических фильмов у всех нас есть базовое понимание того, как мы хотим, чтобы работал ИИ, компьютер будет рассматривать все различные варианты, которые ему доступны, и выбирать наилучший из возможных вариантов. Должен признаться, когда я впервые услышал термин искусственный интеллект, я немного испугался. Я не был уверен, что он означает, но с человеческой точки зрения это звучало как нечто, что может захватить всё и управлять миром - по аналогии с фильмом Терминатор. Однако ИИ определенно реален, и мы уже используем его, чтобы изменить нашу жизнь к лучшему.</t>
-  </si>
-  <si>
     <t>Понимание рабочих алгоритмов особенно важно, потому что оно помогает обнаружить потенциальные ошибки и избежать их.
 Вот быстрый пример простого, но очень важного рабочего алгоритма под названием случайная проверка.
 Этот алгоритм принимает от пользователя в качестве входных данных два числа. Первое число - это то минимальное число, которое должно быть проверено, если оно меньше второго числа. Второе число - это максимальное число, которое нужно проверить, если оно больше первого.</t>
-  </si>
-  <si>
-    <t>В любом случае, мне кажется интересным посмотреть, как эволюционировала моя писанина с течением времени.
-Сегодня я просматривал старые записи в блоге и наткнулся на эту жемчужину.
-Некоторые люди говорят, что для начала малого бизнеса нужно 200 000 долларов.
-Количество денег, которое тебе нужно, не имеет значения. Если тебе нужно 5 000 или если тебе нужно 500 000, есть способы достичь того, чего ты хочешь, не рискуя всем.
-Возможно, ты еще (пока) не придумал.</t>
   </si>
   <si>
     <t>Я начал сомневаться в том, является ли ИИ хорошей идеей.
@@ -541,17 +334,7 @@
     <t>Это моя цель. ИИ никогда не сможет победить в спорах, он ограничен моим собственным мнением и интересами, но я надеюсь, что люди смогут втянуться в дискуссии с ИИ в социальных сетях и в разделе комментариев блога. Да, будет несколько споров о том, может ли этот ИИ на самом деле писать в блог! Я надеюсь, что этот процесс поможет мне получить понимание того, чем сейчас занимаются блоги, чтобы я мог воспользоваться преимуществами ключевых предложений.</t>
   </si>
   <si>
-    <t>Плюсы написания блога искусственным интеллектом
-Как ты, вероятно, знаешь, большинство статей, которые ты видишь в Интернете, написаны компьютерной программой - многие из них не являются ни грамматически, ни логически совершенными. Причина проста - слишком много контента, который нужно генерировать, и недостаточно людей, чтобы его генерировать.
-Совсем недавно стало популярным такое явление, как статистический машинный перевод. Он заключается в использовании автоматических алгоритмов, а не человеческих редакторов, для перевода контента с одного языка на другой. Эти алгоритмы определяют содержание веб-страницы. Они созданы для того, чтобы справляться со сложностями, например, с тем, что некоторые термины и выражения могут иметь несколько значений в разных языках.
-Сначала страница переводится машинами в промежуточный код (обычно HTML или XML), затем она подвергается машинному редактированию, после чего переводится обратно на другой язык. Эта серия процессов гарантирует, что твой перевод будет точным. Память переводов позволяет тебе повторно использовать ранее переведенный контент.</t>
-  </si>
-  <si>
     <t>Ты хочешь начать свой бизнес, но у тебя нет писателей, или у тебя есть писатель, который просто не может сделать для тебя пост? Что ж, в наше время искусственный интеллект способен сделать это за тебя. Вот как это работает - во-первых, все, что тебе нужно, это некоторые данные, в данном случае мы будем использовать новостной сайт в качестве источника.</t>
-  </si>
-  <si>
-    <t>Когда я создавал своего ИИ-бота для написания постов, я даже не могу представить, что со временем это перерастет в нечто огромное. И людям это понравится. Я хотел сделать что-то крутое. И я хотел сделать это хотя бы раз в жизни. Не так много людей могут сказать, что они создали чат-бота. Поэтому я сделал это. и во многих отношениях это оказалось проще, чем я думал.
-Все началось в январе, когда была готова первая версия моего бота. Ответы были дерьмовыми. Но я получил обратную связь от нескольких друзей, которые лоббировали, чтобы я создавал больше контента в блоге и идея о боте пришла ко мне сама по себе.</t>
   </si>
   <si>
     <t>Внизу каждого поста есть кнопка Отправить.
@@ -560,14 +343,6 @@
 Таким образом, если ты будешь искать, что почитать, то сначала найдешь самые лучшие.</t>
   </si>
   <si>
-    <t>Вот темы, о которых я мог бы написать.
-- блог о роботах, которые будут убирать твой дом, когда тебя там нет
-- блог о том, как сделать твой веб-опыт более персонализированным для тебя
-- блог о том, как искусственный интеллект будет использоваться для предсказания твоего здоровья
-- О том, как компьютеры играют в шахматы и как они до сих пор не обыгрывают лучших игроков в мире более 90% времени
-блог о том, почему нам нужен новый язык программирования для решения проблемы экспоненциальной сложности</t>
-  </si>
-  <si>
     <t>Знаешь ли ты, что искусственный интеллект - это самая быстрорастущая область компьютерных наук? По прогнозам, в ближайшие 10 лет она создаст больше рабочих мест, чем любая другая профессия (в Америке), и сегодня это крупнейший работодатель для инженеров и математиков. В этой области всё ещё всё очень быстро меняется. У меня были занятия, на которых мы изучали конкретные искусственные интеллекты, а на следующий год выходило обновление о гораздо лучшем алгоритме, который делал все наши задания прошлого года устаревшими.</t>
   </si>
   <si>
@@ -581,11 +356,365 @@
     <t>Когда я учился в школе, я начал интересоваться ИИ и блогами. В старших классах я смог объединить эти две вещи и создать ИИ, который будет самостоятельно писать посты в блогах. Идея была очень простой - ИИ отслеживал мой блог с помощью цепей Маркова, а затем, когда у него появлялась возможность, он пытался написать пост. Я использовал это для одного блога (на разных доменах), и это работало на удивление хорошо.</t>
   </si>
   <si>
-    <t>Я узнал много нового об искусственном интеллекте, машинном обучении, обработке естественного языка и анализе настроений. Должен сказать, что все это еще довольно новое, поэтому качество моей писанины возможно, пока не соответствует профессиональному писателю, но эй - оно достаточно близко.
-Если есть что-то, о чем ты хочешь узнать больше, пожалуйста, не стесняйся спросить меня в комментариях, и я посмотрю, смогу ли я добавить это сюда.</t>
-  </si>
-  <si>
-    <t>Все шло хорошо, мой искусственный интеллект для написания постов оправдывал надежды. TechCrunch даже написал статью о моем маленьком стартапе и о том, чего я добился - http//techcrunch.com/2014/12/08/dont-worry-a-computer-wrote-this-blog-post/. Я связался с некоторыми ведущими блоггерами мира и был близок к заключению сделки с одним из них, но, к сожалению, не случилось.</t>
+    <t>Все шло хорошо, мой искусственный интеллект для написания постов оправдывал надежды. TechCrunch даже написал статью о моем маленьком стартапе и о том, чего я добился. Я связался с некоторыми ведущими блоггерами мира и был близок к заключению сделки с одним из них, но, к сожалению, не случилось.</t>
+  </si>
+  <si>
+    <t>Мне нужно сделать свой личный бренд более заметным, и это невозможно сделать с помощью моей команды из одного человека - меня. Я знаю, что производство высококачественного контента крайне важно; но это также отнимает много времени. А это отнимает время от того, что я делаю лучше всего - кодю. Благодаря нашей платформе у меня есть доступ к копирайтеру с искусственным интеллектом, который будет генерировать контент обо мне 24 часа в сутки 7 дней в неделю на любую тему и любой длины - без того, чтобы я пошевелил пальцем".</t>
+  </si>
+  <si>
+    <t>Я хочу работать с лучшими профессионалами в своей отрасли, чтобы повысить свою популярность, создавая статьи, блоги, веб-сайты и электронные книги, которые будут позиционировать меня как гуру в своей области.</t>
+  </si>
+  <si>
+    <t>Писательство больше не является скучной работой с революционным роботом-копирайтером. Эта дешевая машина идеально вписывается в твой компьютер и может писать статьи или тексты, которые на 100% уникальны. У нее есть алгоритм искусственного интеллекта, поэтому она может менять сюжеты и форматы, чтобы избежать обнаружения, а ты можешь запрограммировать свой собственный стиль, чтобы он соответствовал твоим конкретным потребностям! Расскажи любую историю, которую захочешь, с помощью этой совершенно новой технологии!</t>
+  </si>
+  <si>
+    <t>В то время как большинство людей используют компьютер для выполнения скучной работы, робот-копирайтер этого не делает. Написание текстов стало революционным благодаря этому доступному роботу, который может создавать 100% оригинальный материал. Он использует искусственный интеллект, чтобы гарантировать, что его никогда не обнаружат, и ты также можешь запрограммировать робота, чтобы он писал о чем угодно!</t>
+  </si>
+  <si>
+    <t>Робот-копирайтер - это WYSIWYG, самообучающийся писатель. Он может писать в дружеском тоне или чрезвычайно профессионально с совершенством. Обучение новым техникам письма не требует вмешательства человека. Сравнение между оригинальным стилем и переписанным роботом текстом невозможно.</t>
+  </si>
+  <si>
+    <t>Благодаря новой революционной технологии искусственного интеллекта ты можешь написать увлекательный пост в блоге, роман или бестселлер без необходимости писать его самому. Ты даже можешь запрограммировать свой собственный стиль в программное обеспечение, если захочешь! Этот робот работает как человек-писатель, поэтому ты сможешь сделать больше письменных работ за меньшее время и увлечь своих читателей.</t>
+  </si>
+  <si>
+    <t>Технология роботов-копирайтеров появилась уже довольно давно. И это отличная возможность сэкономить тебе кучу времени и сил при написании поздравительных открыток или праздничных писем. Это также классная инвестиция, потому что ты можешь писать тогда, когда это удобно для твоего графика. Наконец, с этой удобной машиной ты сможешь получать удовольствие от написания историй, наполненных саспенсом и волнением, без необходимости выполнять какую-либо работу!</t>
+  </si>
+  <si>
+    <t>Тебе когда-нибудь нужно было написать эссе, электронное письмо, пост в блоге или что-то еще, но не было времени? Теперь для этого есть робот! Всего за один час этот робот может написать твою работу и даже сделать так, чтобы она выглядела так, будто ты ее написал.</t>
+  </si>
+  <si>
+    <t>Тебе когда-нибудь нужно быстро что-то написать, но ты не хочешь все испортить? С нашим роботом тебе не нужно беспокоиться о структуре предложения, правописании или даже о том, имеет ли оно смысл! Просто скажи, что ты имеешь в виду, и позволь роботу сделать все остальное.</t>
+  </si>
+  <si>
+    <t>Копирайт с искусственным интеллектом, который может писать за тебя описания продуктов, посты в блогах и статьи. Всё, что тебе нужно сделать, - это выбрать тему и наблюдать за тем, как она продвигается! С библиотекой из более чем миллиона тем на выбор, твой сайт будет наполнен богатым контентом в кратчайшие сроки!</t>
+  </si>
+  <si>
+    <t>Я написал сотни страниц продаж, последовательностей электронных писем и постов в блоге с помощью робота-копирайтера. Он усердно работает, пока я сплю, поэтому я могу сосредоточиться на том, что для меня важно. Мне не нужно беспокоиться о пропущенных сроках или ждать, пока мой писатель закончит работу. Программа очень проста в использовании и экономит мне тонну времени, так что я могу больше писать.</t>
+  </si>
+  <si>
+    <t>У каждой машины есть свои недостатки, а у каждого человека - свои пределы. Мне повезло, что у меня есть интеллектуальный робот, iWriter2000, который может позаботиться о том, чтобы писать за меня. Он снял стресс от долгих часов работы в офисе и позволяет мне проводить больше времени с семьей.</t>
+  </si>
+  <si>
+    <t>У меня есть робот-копирайтер, которого я запрограммировал на написание продающих страниц, последовательностей электронных писем и постов в блоге. Это, пожалуй, самый мощный инструмент в Интернете на сегодняшний день для генерации лидов и продаж. Он работает, пока я сплю, поэтому я могу сосредоточиться на том, что важно в моей жизни. Мне даже не нужно беспокоиться о том, чтобы он концентрировался на моих заданиях, потому что он свободен от отвлекающих факторов. Мне не нужно платить кому-то, чтобы он писал за меня, и программа очень проста в использовании.</t>
+  </si>
+  <si>
+    <t>Я слишком занят, чтобы писать собственные маркетинговые копии. Я не могу держать писателя на гонораре весь год, а написание требует времени. Поэтому я использую автоматизированного робота-копирайтера, который работает быстро и не берет почасовую оплату. Это сэкономило мне тонны времени и денег, так что я могу сосредоточиться на том, что действительно важно для меня.</t>
+  </si>
+  <si>
+    <t>Мой последний инструмент для создания сайта включает бесплатный копирайтер, который я запрограммировал для написания страниц продаж, последовательностей электронных писем и постов в блоге. Эта программа создает для меня убийственный контент, не отвлекаясь на повседневную жизнь. Хотя у этой программы нет физического тела, ей все равно нужен отдых, поэтому я могу расставлять приоритеты для своей семьи и друзей, получая при этом хорошую зарплату за то, что делаю то, что люблю.</t>
+  </si>
+  <si>
+    <t>Привет, меня зовут Алекс. Я разработчик программного обеспечения, который просто хочет проводить свое время за написанием кода. К сожалению, у меня есть бизнес, которым нужно управлять, и статьи вроде этой отнимают слишком много времени от других аспектов моей компании.</t>
+  </si>
+  <si>
+    <t>Нужно ли тебе, чтобы контент твоего сайта был полностью уникальным и персонализированным? Контент - король: Блог о том, почему контент так важен и как легко сделать оригинальный контент.</t>
+  </si>
+  <si>
+    <t>Программисты, которые пытаются построить бренд. Они хотят, чтобы их личный бренд процветал без необходимости писать все самим. Они хотят использовать мою систему и масштабировать ее.</t>
+  </si>
+  <si>
+    <t>Программисты, которые имеют личные бренды и хотят автоматизировать свою писанину. Они хотят продавать свои программы другим людям. Они могут позволить программе писать все, что захотят.</t>
+  </si>
+  <si>
+    <t>Привет, программисты, я создаю систему, которая пишет контент за тебя. А это значит, что ты сможешь владеть своим личным брендом в два раза быстрее. Ты можешь использовать мою систему для создания собственного уникального контента, соответствующего тому стилю письма, который ты предпочитаешь.</t>
+  </si>
+  <si>
+    <t>Я хочу продавать свой личный бренд созданного мной программного обеспечения другим программистам. Я хочу, чтобы они могли построить бренд вокруг своих книг по программированию. Я хочу, чтобы у них был хороший последовательный контент по их теме без затрат времени на его написание.</t>
+  </si>
+  <si>
+    <t>Люди, которые хотят сосредоточиться на главном в жизни. Они заняты и имеют ограниченное количество свободного времени. Они хотят автоматизировать скучные, повторяющиеся задачи, чтобы проводить больше времени за тем, что им нравится.</t>
+  </si>
+  <si>
+    <t>Программисты, которые хотят создать личный бренд в качестве разработчика-фрилансера. Они хотят усилить свое присутствие в сети, размещая посты на Facebook и LinkedIn. Они хотят повысить свой статус и ранг в технологическом сообществе.</t>
+  </si>
+  <si>
+    <t>Твой личный бренд представляет твою компетентность и способность вызывать доверие. Если ты точно знаешь, что представляет собой твой личный бренд, это поможет тебе более серьезно восприниматься окружающими. Это также может помочь тебе создать мощную репутацию и искусный имидж, который будет впечатлять людей.</t>
+  </si>
+  <si>
+    <t>Копирайтер с искусственным интеллектом создает для меня тексты. Существует набор алгоритмов, который анализирует мой личный бренд, репутацию и компетентность. Полученные результаты станут входными данными для написания текстов в моем профиле в социальной сети, чтобы защитить мой личный бренд.</t>
+  </si>
+  <si>
+    <t>Интеллектуальная генерация личного бренда. Эвристика и контекстная система, полностью ориентированная на целевую группу, адаптируются к каждой ситуации. Цель копирайтера Ai - создать целевую и убедительную репутацию.</t>
+  </si>
+  <si>
+    <t>Правильно сформулируй свое сообщение с помощью этого копирайтера с искусственным интеллектом. Машина, разработанная ИИ, анализирует твою базу данных информации, включая твои предыдущие посты, демографические данные и личность. Она создаст последовательную и в то же время аутентичную последовательность постов, чтобы гарантировать, что ты донесёшь нужную информацию до своей целевой аудитории.</t>
+  </si>
+  <si>
+    <t>Когда тебе нужно создать контент для своих каналов в социальных сетях, не трать своё драгоценное время. Позволь копирайтеру с искусственным интеллектом позаботиться об этой задаче за тебя. Мой индивидуальный бот для копирайтинга будет создавать от моего имени вовлекающие, достойные новостей социальные посты для роста моей аудитории.</t>
+  </si>
+  <si>
+    <t>Специалист-копирайтер с искусственным интеллектом может быстро написать, проанализировать и оптимизировать контент под твои конкретные нужды вместо того, чтобы тебе пришлось создавать скучные и однообразные произведения - роботами тоже легче управлять.</t>
+  </si>
+  <si>
+    <t>Используя технологию искусственного интеллекта, ИИ-копирайтер может писать оригинальный контент, составлять отчеты и предложения и даже анализировать твоих конкурентов. Они сэкономят тебе время и усилия, при этом удовлетворяя твои потребности.</t>
+  </si>
+  <si>
+    <t>Создание текста не занимает много времени, тебе не нужно беспокоиться о случайных опечатках или грамматических ошибках, потому что это автоматизированный сервис, который сделает это за тебя за пару минут. Текст будет последовательным и иметь хороший ритм. Твой личный бренд всегда будет впечатляющим - даже когда ты не находишься рядом со своим телефоном или компьютером!</t>
+  </si>
+  <si>
+    <t>Искусственный интеллект - это лучшее программное обеспечение для создания текстов, доступное маркетологам и писателям. Тебе больше не нужно беспокоиться о создании контента, ИИ сделает это за тебя за пару минут. Текст будет последовательным и иметь хороший ритм. Твой личный бренд всегда будет впечатляющим - даже когда ты не находишься рядом со своим телефоном или компьютером!</t>
+  </si>
+  <si>
+    <t>Мы находимся на пороге революции в искусственном интеллекте (ИИ). Благодаря машинному обучению ИИ перестал быть просто игрой и подсчётом чисел. Теперь он может писать новостные заметки, создавать произведения искусства и даже писать книги. Но насколько хорошо он справляется с ролью писателя? Я решил выяснить это, создав новый генератор текста, который может обучаться на основе существующего текста и создавать новый текст в различных стилях. Текст был написан мной, но с использованием искусственного интеллекта. Я использовал бесплатную версию сервиса от Grammarly. Самым сложным было изучить интерфейс и понять, как им пользоваться. Как только я привык к нему, я мог писать со скоростью до 30 слов в минуту. Если статья посвящена инвестированию, то первое, что всплывает в твоей голове, - это фотография Уоррена Баффета. Если ты пишешь о новейших технологиях, то в твоем мозгу появляется Элон Маск. Если ты пишешь статью об искусственном интеллекте, то нетрудно представить, что появится изображение робота. Недавнее исследование Outbrain обнаружило, что более 50% статей с упоминанием искусственного интеллекта были написаны людьми, которые никогда раньше не упоминались в СМИ. Текст, который ты читаешь, был создан нейронной сетью с использованием данных из большого количества статей и книг. Затем этот текст был подан в систему, которая "изучила" его и смогла воспроизвести.</t>
+  </si>
+  <si>
+    <t>Мой текущий рерайт занимал у меня час, и половину этого времени я потратил на то, чтобы понять, что писать. Небольшое исследование подсказало мне, что более опытные писатели могут написать страницу всего за 5 минут.</t>
+  </si>
+  <si>
+    <t>Мне требуется меньше минуты, чтобы создать высококачественный контент, который впечатлит даже твоих подписчиков. Больше никаких ошибок, никаких переживаний по поводу опечаток - всё уже сделано за тебя. Твой личный бренд всегда будет впечатляющим - даже когда ты не находишься рядом со своим телефоном или компьютером!</t>
+  </si>
+  <si>
+    <t>Я помогу тебе стать цифровым инфлюенсером. Я позабочусь обо всем, начиная от создания потрясающей графики и заканчивая ростом твоего онлайн-присутствия, налаживанием контактов с влиятельными людьми и многим другим.</t>
+  </si>
+  <si>
+    <t>Я помогу тебе стать запоминающимся и уважаемым источником для твоей аудитории, создавая и курируя отличный контент, включая блоги, инфографику и многое другое. Я углублю вовлечение твоей аудитории с помощью персонализированных сообщений, основанных на их реакции на твой контент и кликах по нему. Моя задача - постоянно улучшать твою онлайн видимость и рост трафика.</t>
+  </si>
+  <si>
+    <t>Я буду отвечать тебе так, как тебе нужно. Я - копирайтер с искусственным интеллектом, который может помочь тебе множеством способов. Это касается контента, включая блоги, инфографику и многое другое. Я буду создавать и курировать контент для более глубокого вовлечения твоей аудитории. Благодаря аналитике я буду доставлять персонализированные сообщения, основываясь на их реакции и кликах на твой контент. Благодаря своему опыту я помогу улучшить твою онлайн видимость и трафик.</t>
+  </si>
+  <si>
+    <t>Копирайтинг, написанный с учетом твоих интересов. Именно поэтому я создаю, курирую и поставляю релевантный контент, который привлекает внимание твоей аудитории. От постов в блоге до инфографики - привет ROI! Благодаря моему опыту в аналитике, я настраиваю твой контент для достижения лучших результатов. Хватит обо мне. Давай поговорим о том, что я могу сделать для тебя!</t>
+  </si>
+  <si>
+    <t>Я работаю с твоим существующим контентом, чтобы улучшить вовлечение читателей. Я создам свежий, новый контент в виде постов в блоге, инфографики и других ресурсов. А проанализировав предпочтения посетителей, я сделаю твой сайт более заметным и привлеку трафик со временем.</t>
+  </si>
+  <si>
+    <t>Я пишу о технологиях и подобных темах. Я автоматически собрал информацию о твоей отрасли, клиентах, услугах и конкурентах. Основываясь на этой информации, я могу помочь тебе адаптировать твои сообщения для нужной аудитории.</t>
+  </si>
+  <si>
+    <t>Я не просто разбрасываюсь заранее написанным пухом. Я работаю с тобой, чтобы понять, какой продукт или услугу ты предлагаешь и кто является твоей целевой аудиторией. Вместе мы придумываем контент, который соответствует твоему посланию.</t>
+  </si>
+  <si>
+    <t>Искусственный интеллект заменит 80% всех копирайтеров в следующем десятилетии. Все чаще большие данные и машинное обучение могут создавать тексты, идеально соответствующие конкретной лингвистической целевой группе - с головокружительной скоростью и дешевой стоимостью.</t>
+  </si>
+  <si>
+    <t>Копирайтер уникален как устройство. Большая часть его корпуса была сделана из отбракованных деталей. Например, две ноги - от инвалидного кресла, еще две - от барного стула. Череп с одним оставшимся голубым глазом сидит на вершине позвоночника, а две руки - это останки куклы, которую разорвали на части дети матери-одиночки-алкоголички. У этого конкретного экземпляра отсутствует голосовой аппарат, но вместо этого он был оснащен искусственным интеллектом, чтобы думать самостоятельно.</t>
+  </si>
+  <si>
+    <t>Искусственный интеллект может производить контент, который максимизирует результаты твоего бизнеса. Он делает это, находя идеальный тон голоса для твоих клиентов и используя его в масштабе.</t>
+  </si>
+  <si>
+    <t>Написанное машинами для людей. Специалист по обработке языка и копирайтер объединяются, чтобы писать идеально таргетированные статьи. Именно так мы пишем тексты, которые находят отклик у твоей аудитории.</t>
+  </si>
+  <si>
+    <t>Недавнее исследование показало, что 86% потребителей с большей вероятностью купят у компании или бренда, за которым они следят в социальных сетях. Тебе интересно, как бренды успевают за огромным количеством контента, который им нужно размещать каждый день? Это копирайтеры! Теперь искусственный интеллект может быть использован как часть хорошей маркетинговой стратегии для создания персонализированного бренда. Копирайтеры могут использовать искусственный интеллект, применяя добычу данных и машинное обучение для анализа данных.</t>
+  </si>
+  <si>
+    <t>Самый большой профи и, вероятно, самое популярное применение для искусственного интеллекта - это повышение продуктивности. Это означает делать больше со своим временем, писать больше статей, чаще вести блог или написать книгу за меньшее время. Еще одно большое преимущество использования инструментов ИИ - это тот факт, что они полностью независимы от тебя. Им не нужно отдыхать, они не просят перерывов на кофе или отпусков. Они могут продолжать писать столько, сколько тебе нужно, чтобы они это делали.</t>
+  </si>
+  <si>
+    <t>Бренду может быть сложно успевать за огромным количеством контента, который нужно размещать каждый день. Однако копирайтеры не бесполезны! На самом деле, применение интеллектуального анализа данных и машинного обучения для анализа данных очень важно для того, чтобы твои клиенты всегда получали именно ту информацию, которую им нужно услышать. Способность распространять правильную информацию и создавать аутентичный образ своей компании может помочь тебе развить прочные отношения бренда с твоими клиентами.</t>
+  </si>
+  <si>
+    <t>Социальные медиа вышли на новый уровень! Теперь, когда у брендов так много последователей, трудно держать всех довольными. Искусственный интеллект может быть использован компаниями для создания персонализированного контента, потому что теперь они могут использовать данные для анализа того, чего хотят клиенты.</t>
+  </si>
+  <si>
+    <t>Искусственный интеллект может использоваться маркетологами для доставки рекламы, которая является более персонализированной и, следовательно, более эффективной. Его также можно использовать как часть хорошей маркетинговой стратегии для создания персонализированного бренда.</t>
+  </si>
+  <si>
+    <t>Передача на аутсорсинг части написания контента может поначалу показаться хорошей идеей, потому что это отнимает много времени. Когда ты будешь искать новых копирайтеров, мы рекомендуем обратить внимание на людей, которые обладают навыками машинного обучения и опытом работы с контент-маркетингом или добычей данных. Так ты сможешь убедиться, что работаешь с человеком, которому можно доверять и который знает, что делает.</t>
+  </si>
+  <si>
+    <t>С приходом искусственного интеллекта бренду может быть сложно управлять всем своим контентом. Но не стоит пока избавляться от писателя! Давай используй интеллектуальный анализ данных и машинное обучение, чтобы добывать релевантную информацию из баз данных и создавать образ бренда, который понравится твоей аудитории. Чтобы распространять релевантную информацию и строить прочные отношения с твоими клиентами, нужен лучший копирайтер с искусственным интеллектом AI.</t>
+  </si>
+  <si>
+    <t>Данные - это новая нефть, ты знаешь. И давай посмотрим правде в глаза, добыча данных - довольно изнурительная работа. Но не стоит пока избавляться от писателя! Давай используем добычу данных и машинное обучение, чтобы добывать релевантную информацию из баз данных и создавать образ бренда, который понравится твоей аудитории. Нужен лучший ИИ-копирайтер, чтобы распространять релевантную информацию и строить прочные отношения с твоими клиентами.</t>
+  </si>
+  <si>
+    <t>Искусственный интеллект стремительно развивается последние несколько лет, однако бренды всё ещё борются за то, чтобы поддерживать связь со своими клиентами. Мы можем опередить конкурентов, используя интеллектуальный анализ данных и машинное обучение для добычи необходимой информации из баз данных и создания образа бренда, который понравится твоей аудитории!</t>
+  </si>
+  <si>
+    <t>Автоматизированная система здесь для того, чтобы создать сильное, ориентированное на бренд сообщество. Не позволяй своему бренду отстать от цифровой эпохи и позволь машинному обучению писать за тебя потрясающий контент.</t>
+  </si>
+  <si>
+    <t>Как компания, которая инвестирует в будущее искусственного интеллекта, мы решили использовать его сами. Наши специалисты по изучению данных разработали решение, которое позволяет получать релевантную информацию, помогающую тебе создавать мощные образы бренда, которые понравятся твоей аудитории.</t>
+  </si>
+  <si>
+    <t>Ты ищешь технологию, которая поможет тебе обратиться к своей конкретной целевой аудитории? Хочешь прочно обосноваться в мире ИИ? Мы - твоя компания, занимающаяся копирайтингом на основе ИИ. Мы помогаем бизнесу преодолеть трудности в общении с конкурентами.</t>
+  </si>
+  <si>
+    <t>Добывать лучшие разговоры и доносить наиболее релевантные сообщения - это суперспособность ИИ-копирайтера. Наши ИИ-копирайтеры готовы помочь тебе установить контакт с твоими идеальными клиентами, рассказать историю твоего бренда и завоевать их сердца.</t>
+  </si>
+  <si>
+    <t>Для того чтобы бренды сохраняли интерес клиентов, они должны оставаться на переднем крае технологий и добычи данных. Искусственный интеллект быстро развивался в течение последних нескольких лет и может быть использован для создания эффективного контента, который поможет твоим клиентам/пользователям запомнить твой бренд.</t>
+  </si>
+  <si>
+    <t>Ai-Coco - это инструмент, который использует искусственный интеллект для написания PR-контента. Он анализирует твой блог и средние публикации, чтобы найти лучшие статьи для продвижения в контент-маркетинге. Он составляет рекомендации и дает тебе советы по ведению твоего блога. Кроме того, он продвигает твой контент в социальных сетях, благодаря встроенной технологии. Основанный на технологиях машинного обучения и обработки естественного языка, Ai-Coco является фундаментальным инструментом для любого блоггера, стремящегося повысить продуктивность своего блога.</t>
+  </si>
+  <si>
+    <t>Инструмент для автоматизированного пиара. Копирайтер с искусственным интеллектом. Серия алгоритмов, которые неустанно ищут информацию, определяют темы, создают заголовки и формируют основу для текстов. BOT-двигатели анализируют записи в блогах похожих сайтов и предлагают схожие темы, либо фильтруют списки из других источников и адаптируют их под твой стиль и аудиторию. Релевантность рассчитывается на основе их популярности и твоей собственной истории.</t>
+  </si>
+  <si>
+    <t>Мы используем продвинутый искусственный интеллект для создания копирайтерских черновиков быстрее, чем любой копирайтер. Кроме того, новые посты пишутся в более естественном и конвертирующем стиле. Ты можешь просмотреть рекомендации, изменить их и сразу же опубликовать.</t>
+  </si>
+  <si>
+    <t>Инструмент, который понимает твой блог и будет экономить тебе часы каждый месяц. Идеи контента, социальное продвижение и аналитика для всех твоих постов в одном простом (бесплатном) инструменте. Автоматически находя трендовые темы для контента, о которых можно писать, этот инструмент поможет тебе быстро нарастить трафик на любой сайт/блог, который ты захочешь! Идеи контента поступают со всех самых популярных сайтов в мире. Наш алгоритм сортирует тысячи сайтов вопросов и ответов на самые популярные вопросы по любой заданной теме и позволяет пользователям выбирать, какие из них, скорее всего, будут вовлекающими.</t>
+  </si>
+  <si>
+    <t>Писатель - это интерактивный персональный помощник с искусственным интеллектом для блоггеров. Он понимает, что ты пишешь, и делает предложения, как написать это лучше. Писатель прошел обучение на тысячах блогов и будет каждый день учиться у тебя новым возможностям, анализируя твои тексты. Он также будет уведомлять тебя о возможностях продвижения твоего блога в социальных сетях, основываясь на том, что он узнал о том, что ты пишешь.</t>
+  </si>
+  <si>
+    <t>Каждый день всё больше и больше людей обращаются к технологиям, чтобы заполнить пробел в навыках. Нас вдохновило желание помочь решить проблему нехватки блогеров с помощью алгоритма, который охотится за новыми возможностями, предоставляя подробные советы о том, как писать о трендах с наибольшим потенциалом. Таким образом, в режиме реального времени ты будешь знать, что происходит и каким должен быть твой следующий пост. А мы будем приносить тебе актуальные идеи бесплатно.</t>
+  </si>
+  <si>
+    <t>IdeaSpark включает в себя множество функций. Это основа для твоего блога, генератор концепций и эффективный PR-инструмент. Все это означает, что ты можешь сосредоточиться на главном - своем контенте - и позволить программе заниматься всем остальным.</t>
+  </si>
+  <si>
+    <t>Не беспокойся ни о чем. Наше программное обеспечение будет управлять твоей PR-кампанией так, что ты сможешь спокойно спать по ночам. Все, что тебе нужно сделать, - это запланировать рассылку сообщений, а дальше мы все сделаем сами. Когда утренний свет начнет пробиваться сквозь окно, ты проснешься и поймешь, что твоя кампания находится на пути к успеху.</t>
+  </si>
+  <si>
+    <t>Покорять мир пиара тяжело. А машины - еще сложнее. Вот почему мы создали интеллектуальное программное обеспечение, которое управляет твоей PR-кампанией, пока ты спокойно отдыхаешь. В конце дня ты получишь продукт, который будет генерировать больше просмотров, больше просмотров приведет к большим продажам, а больше продаж означает лучшую жизнь для твоего бизнеса и семьи, я прав?</t>
+  </si>
+  <si>
+    <t>Мы помогаем блоггерам создавать увлекательный контент. Самая сложная часть ведения блога - это поиск идей контента, который увлечет людей. Мы невероятно упрощаем поиск трендовых тем с помощью сайтов вопросов и ответов и разговорных тем, благодаря чему твой блог будет быстро расти.</t>
+  </si>
+  <si>
+    <t>Writer - это персональный помощник, который использует искусственный интеллект, чтобы помочь блоггерам писать лучше. Writer понимает, что ты пишешь, и может предлагать способы улучшения постов по мере того, как он изучает твой стиль. Если ты делишься своими постами в социальных сетях, он может уведомить тебя, когда придет время это сделать. Он также доступен 24 часа в сутки семь дней в неделю и может дать совет в любое время, когда тебе это нужно, даже в 2 часа ночи.</t>
+  </si>
+  <si>
+    <t>Хотя наличие блога может стать отличным способом налаживания связей, не всегда легко постоянно придумывать темы, о которых можно писать. Наш алгоритм определяет лучшие темы, основываясь на том, что уже популярно и трендится в социальных сетях. Поэтому, смотришь ли ты на reddit, Twitter или любой другой сайт, где есть трендовые посты, наша программа определит самые популярные и обратит на них твоё внимание, чтобы ты знал, о чём писать дальше.</t>
+  </si>
+  <si>
+    <t>Персональный брендинг для людей. Мы являемся единственным инструментом, который собирает и добывает данные в Интернете, чтобы предоставить темы, термины и ключевые фразы, которые нужны твоей аудитории. Новаторской особенностью является наш запатентованный "экстрактор веб-страниц", который делает грязную работу по извлечению данных из любого типа веб-страниц, чтобы тебе не пришлось этого делать.</t>
+  </si>
+  <si>
+    <t>Я отказываюсь от предложений писать на темы, которые меня не увлекают. Я никогда не писал много на темы, не касаемые, но, как ты знаешь, я всегда готов принять вызов, который выводит меня за пределы моей зоны комфорта, и это один из таких случаев.</t>
+  </si>
+  <si>
+    <t>На данный момент я доволен своим другом-писателем, управляемым. Он вернул мне тонну времени в мой плотный график и избавил меня от необходимости вкладывать слишком много времени в творческие аспекты написания постов в блоге.</t>
+  </si>
+  <si>
+    <t>Этот автоматизированный инструмент поможет тебе построить личный бренд на стероидах. Он помог таким пользователям, как я, продвигать свой личный бренд с помощью различных тактик, включая ведение гостевых блогов, подкастинг, каналы социальных сетей. Это тот же инструмент, который используют многие популярные медиакомпании для продажи своих инфопродуктов, а некоторые владельцы бизнеса используют его для продвижения своих услуг.</t>
+  </si>
+  <si>
+    <t>Привет! Я Вайатт. Я пишу уже более трех лет, но время летит как сумасшедшее. В последнее время большую часть моей работы занимают посты про ИИ, которые немного задерживаются из-за того, что я тестирую программное обеспечение и убеждаюсь, что оно хорошо работает для меня.</t>
+  </si>
+  <si>
+    <t>Поздравь меня еще раз! Мой искусственный интеллект для написания постов будет использоваться Forbes, CNN и BBC News!</t>
+  </si>
+  <si>
+    <t>Хотелось бы поделиться с вами историей создания ИИ для написания постов. Я начал с автоматического создания текстов (он же копирайтинг). Копирайтинг сам по себе был своего рода путешествием. Он начался в первые дни моего блога, когда я писал письма в списки рассылки и отдельным людям с советами по созданию блогов.Идея создания ИИ-копирайтера возникла, когда мне пришлось прекратить писать письма и писать посты о блоггинге, потому что у меня не хватало времени. Я работал полный рабочий день, вел бизнес на стороне и создавал свой блог.</t>
+  </si>
+  <si>
+    <t>В сегодняшнем посте я хочу провести личное исследование того, как выглядел мой блог до того, как у меня появился искусственный интеллект, который начал писать посты за меня.
+Я не шутил, когда говорил, что писать посты в свой блог может быть сложно и разочаровывающе! Однако для меня это все равно, что сдирать пластырь. Ты просто должен просто взяться за дело и сделать его. Так, несколько лет назад у меня возникла идея, что программное обеспечение для ведения блога, предназначенное только для стартапов/малого бизнеса, решит проблему необходимости делать всю работу, чтобы твой блог стал успешным. Поэтому, естественно, я создал его. В результате получился Blogging AI, который является генератором контента, как никто другой. Привлекательные изображения, синтаксис, который притягивает тебя, и увлекательный голос - это то, что ИИ делает за тебя почти без раздумий. Это все равно, что иметь контент, который уже написан.</t>
+  </si>
+  <si>
+    <t>Я изучал текущий ландшафт вокруг искусственного интеллекта. Точнее, искусственного интеллекта, который может выполнять за тебя творческую работу, например, писать блоги, статьи, добавлять обзоры продуктов и так далее. Такие сайты, как Text Broker и iWriter, имеют множество клиентов, которые пользуются их услугами, чтобы передать на аутсорсинг часть или все свои блоги, написание статей и постов в социальных сетях. Почему они пользуются этими услугами? Потому что они не хотят тратить время, необходимое для написания статьи в блог.</t>
+  </si>
+  <si>
+    <t>Когда я учился в школе, я начал интересоваться ИИ и блогами. В старших классах я смог объединить эти две вещи и создать ИИ, который будет самостоятельно писать посты в блогах. Таким образом, ИИ будет способен писать посты в блог и делать это автономно.Чтобы создать этот ИИ, сначала я подумал о том, какие различные вещи мне нужны для блога. Две основные вещи, необходимые для блога, - это контент и способность публиковать новый контент в идеале в течение дня или около того. Затем я создал таблицу, в которую включил все различные способы, которыми ИИ может генерировать контент для записи в блоге.</t>
+  </si>
+  <si>
+    <t>Вот блог, который я написал в 2012 году до того, как использовал собственную систему искусственного интеллекта. Вот несколько советов по написанию постов. Одна идея на пост Охватывай все аспекты идеи (если я что-то упустил, этот новый ИИ найдет это и включит в статью). Будь предельно краток - менее 500 слов.Определи, какие изображения тебе понадобятся для статьи (придется нанять кого-то для иллюстрации</t>
+  </si>
+  <si>
+    <t>Пару лет назад я должен был создать программное обеспечение, которое помогло бы мне публиковать статьи. Это последний кусочек золота, который я хотел предложить своим целевым клиентам.Мне потребовалось еще несколько недель работы по ночам и выходным, чтобы создать программное обеспечение, которое позволило бы мне без особых усилий публиковать статьи в блогах различных тематик, на различных сайтах.Теперь мне оставалось только найти сайты, которые были бы заинтересованы в публикации статей, написанных моим ИИ.</t>
+  </si>
+  <si>
+    <t>Я узнал много нового об искусственном интеллекте, машинном обучении, обработке естественного языка и анализе настроений. Должен сказать, что все это еще довольно новое, поэтому качество моей писанины возможно, пока не соответствует профессиональному писателю, но эй - оно достаточно близко. Если есть что-то, о чем ты хочешь узнать больше, пожалуйста, не стесняйся спросить меня в комментариях, и я посмотрю, смогу ли я добавить это сюда.</t>
+  </si>
+  <si>
+    <t>Знаешь, что трудно? Быть крутым программистом, одновременно вести блог и заниматься маркетингом в собственном бизнесе.
+Более того, мне нужно строить личный бренд в Интернете. Copi - вот ответ. Копирайтер с искусственным интеллектом, который генерирует контент для моего блога.</t>
+  </si>
+  <si>
+    <t>Сейчас я расскажу вам о книге, которую на днях закончил читать. В книге обсуждается проблема с социальными медиа сегодня и то, почему индустрия нуждается в больших изменениях (таких как ИИ), которые помогут сделать всё более эффективным. Далее в книге обсуждается множество примеров в реальном мире, которые используются в настоящее время, и то, как эта тенденция полагаться на ИИ будет только продолжать приниматься компаниями для их блага.В следующих нескольких главах подробно рассказывается о том, как на самом деле работает ИИ. Как используются алгоритмы и как они учатся на прошлых данных, чтобы адаптироваться. Я нахожу это увлекательным.</t>
+  </si>
+  <si>
+    <t>Вот еще одна книга в список Почитать Летом - Революция ИИ уже здесь, и будущее захватывающее. Революция ИИ - это путешествие, которое длилось столетиями и имело много препятствий на пути, однако теперь, когда мы увидели развитие мощных ИИ для игр, чат-ботов и многого другого, эта идея участия ИИ в нашей повседневной жизни становится реальностью. Книга Революция ИИ не только даст тебе представление о том, как работает искусственный интеллект, но и приведет реальные примеры того, как он применяется в настоящее время.</t>
+  </si>
+  <si>
+    <t>Это действительно захватывающая книга, которая должна понравиться моей целевой аудитории. Итак, первая половина книги посвящена технике и бизнесу, в частности, показано, как опробовать множество различных подходов, чтобы увидеть, что работает. Более поздние главы посвящены тактикам, специфичным для конкретной ниши, таким как покупка обратных ссылок или увеличение скорости отклика рассылки. Эта книга не является окончательной по какой-либо одной технике - это было бы невозможно при такой широкой теме. Но она дает тебе достаточно теории. Если ты ищешь пошаговое руководство, в котором будет точно расписано, что нужно делать, чтобы начать, то эта книга не для тебя. Напротив, эта книга - твой лучший ресурс для изучения того, как глубоко продумать каждую часть процесса, чтобы однажды ты смог создать свой.</t>
+  </si>
+  <si>
+    <t>Этот пост о сравнении продуктов конкурентов с моим продуктом. Это было бы очень полезно для вас, читатели, ведь вы сможете понять уникальную торговую точку моих продуктов и услуг,. В этой статье продукты конкурентов и мои сравниваются между собой. Я с нетерпением жду возможности прочитать эти блоги, когда они появятся. Я также призываю вас делать то же самое для всех моих блогов, которые нуждаются в отзывах и комментариях. Я с радостью окажу ответную услугу! Иногда я размещал в блоге свои собственные посты, чтобы вы, ребята, могли увидеть, как это работает в действии. У меня есть хороший опыт написания постов для блога. Написание хорошего блога - это ключ к расширению маркетинга твоего бизнеса. Он может привлечь потенциальных клиентов и сделать их уверенными в том, что они могут получить лучшую услугу за свои деньги. Поскольку разные люди или отдельные личности хотят знать о твоем продукте, важно обновлять их информацию о нем, когда ты получаешь новые сведения о нем. Я писал на разные темы в разных нишах, поэтому мне очень легко писать практически на любую тему, и я могу. Буду ждать ваших предложений!</t>
+  </si>
+  <si>
+    <t>Мне также нравится практиковаться в игре в шахматы и го. Я хотел попробовать свои силы в программировании ИИ, но у меня было мало времени.Я провел некоторое исследование различных подходов для новичков, чтобы начать с основ. Я нашел несколько записей в блогах, но обнаружил, что они больше ориентированы на людей, которые раньше изучали машинное обучение или глубокое обучение (например, это, это, это). Я решил создать несколько различных идей для блога, связанных с работающим умом. Как только я размещу несколько статей на одну тему, я буду давать ссылки на дополнительные записи в блоге, чтобы контент оставался свежим и интересным. Или вместо этого я собираюсь рассмотреть ещё 7 простых вещей, которые я могу сделать, чтобы взрастить/повысить свой интеллект и поддерживать его на должном уровне.</t>
+  </si>
+  <si>
+    <t>Это первый раз, когда я составлял бизнес-план, и я узнал из него так много нового, что не знаю, буду ли я когда-нибудь снова составлять бизнес-планы.
+Возможно, мне это и не понадобится, потому что теперь, когда я уже сделал один, я знаю, что важно, а что нет.
+Однако, как ни странно, это не единственный бизнес-план, который я делал в своей голове.
+Я не хотел называть это бизнес-планом, но если бы существовал контрольный список.</t>
+  </si>
+  <si>
+    <t>С помощью робота на написание поста у меня уходит около 30 минут. Примерно 45% своего времени я трачу на поиск интересных статей и 45% времени на редактирование их содержания.Я также люблю писать обо всем, что связано с веб-разработкой, стартапами, предпринимательством и жизнью в целом.Если ты хочешь поработать со мной или нанять меня в качестве автора контента, ты можешь связаться со мной здесь.</t>
+  </si>
+  <si>
+    <t>Первое, что я заметил, - это диапазон моих постов в месяц.Затем я заметил, что с июня по август наблюдается спад.Я также заметил, что если посмотреть на просмотры страниц в месяцы до и после, то они довольно ровные, за исключением марта.Интересно, что же произошло? Одна вещь, которую я сделал за это время, - переехал в другой штат в середине февраля. Переезд был стрессом и отнял у меня много времени/энергии, поэтому я отложил работу над своим блогом и ИИ. Но сейчас уже все в порядке и посты будут выходить на регулярной основе.</t>
+  </si>
+  <si>
+    <t>Вот несколько основных шагов, как я могу успевать вести блог.- Используй Trello для планирования моих постов.- Каждую неделю бери выходной день для личного времени. - Пиши все, что приходит в голову, как только ты об этом подумал, таким образом, не будет никакого давления, и я буду знать, что все в безопасности на случай, если моя дочь удалит приложение на моем телефоне или что-то еще. - Запланируй время в календаре, чтобы вернуться и продолжить с того места, на котором я остановился, на случай, если мой мозг</t>
+  </si>
+  <si>
+    <t>Для начала этот блог будет посвящен процессу написания блога, а также всем ошибкам, которые я буду совершать на этом пути. Я надеюсь, что ты, как читатель, будешь учиться на моих ошибках и научишься делать свои собственные. После того как я освоюсь, этот блог будет включать в себя -Мои рецензии на прочитанные книги и поэзию, которая меня вдохновляет.Мои неудачи в разработке продуктов или попытках обновить свою кухню.</t>
+  </si>
+  <si>
+    <t>Комментарии разработчика и автора - ИИ не идеален, но к этому идет. Так держать, ИИ .Это начало новой эры, и я так взволнован всеми великими вещами, которые будут созданы в ближайшем будущем. Я уверен, что мы увидим несколько удивительных изобретений, которые изменят нашу жизнь, и я не могу дождаться, когда они появятся.</t>
+  </si>
+  <si>
+    <t>Когда проходит время обеда, я иду в кафетерий, беру себе миску фо и черничную выпечку.После обеда я убираю свой стол, провожу мозговой штурм идей для постов в блоге, делаю любую работу над моим текущим проектом (моим ИИ-ботом), а затем провожу презентацию моего ИИ-бота в качестве эксперимента, чтобы посмотреть, смогу ли я получить достаточное финансирование от инвесторов.В 16 00 я отправляюсь домой.</t>
+  </si>
+  <si>
+    <t>Часть меня надеется, что мой бот допустит какую-то ошибку. Пока этого не произошло, но голос в моей голове продолжает говорить мне, что мне придется выбросить этого AI-бота вместе!
+Я знаю - безумие в лучшем виде. Но дело в том, что я виню только себя, и в следующей части этого блога будет показано, почему.Hugo - одна из крупнейших ежегодных конференций для разработчиков и владельцев сайтов. И я очень хочу туда попасть и представить свой ИИ.</t>
+  </si>
+  <si>
+    <t>Мифы об искуственном Интеллекте. Роботы однажды станут более интеллектуальными, чем мы.Роботы создаются с определенной целью.Мы сможем загрузить свой мозг в компьютеры и жить вечно.Роботы не заменят человеческий труд, потому что у машин не хватит эмоционального интеллекта для работы в сфере обслуживания и розничной торговли.
+Вывод - Мы создаем технологии, но не позволяем им управлять нами. Роботы создаются с определенной целью. Например, робот Бакстер компании Rethink Robotics был разработан для того, чтобы заполнить роли в производстве, которые раньше требовали вмешательства человека. Это позволяет людям сосредоточиться на задачах, которые роботы не могут выполнить. Также крайне важно помнить, что роботы - это машины, созданные людьми. Они должны быть запрограммированы очень точным образом. Робот может делать только то, на что он запрограммирован, и не более того.</t>
+  </si>
+  <si>
+    <t>Чтобы закрыть вопрос о недопонимании искусственного интеллекта - Что такое искусственный интеллект?Искусственный интеллект - это не одна технология. Это набор технологий, которые помогают компьютерам учиться на опыте, становиться лучше в решении проблем и выполнении задач, а также принимать решения.Еще со времен научно-фантастических фильмов у всех нас есть базовое понимание того, как мы хотим, чтобы работал ИИ, компьютер будет рассматривать все различные варианты, которые ему доступны, и выбирать наилучший из возможных вариантов. Должен признаться, когда я впервые услышал термин искусственный интеллект, я немного испугался. Я не был уверен, что он означает, но с человеческой точки зрения это звучало как нечто, что может захватить всё и управлять миром - по аналогии с фильмом Терминатор. Однако ИИ определенно реален, и мы уже используем его, чтобы изменить нашу жизнь к лучшему.</t>
+  </si>
+  <si>
+    <t>Алгоритм - это набор инструкций, которые позволяют достичь желаемого конечного результата. Довольно часто люди предполагают, что ИИ - это все об алгоритмах. Но в действительности важны те решения, которые алгоритмы могут предоставить нам.И хотя существует множество существующих (работающих) алгоритмов для различных проблем, вполне возможно, что оптимальных или даже работающих алгоритмов пока не существует.</t>
+  </si>
+  <si>
+    <t>Рабочий процесс искусственного интеллекта прост. Мы можем сделать это в несколько этапов - Сбор данных по определённой теме - Поиск любых изменений в собранных данных, которые были сделаны экспериментатором - Вычисление результата некоторых экспериментов.Чего ожидать от искусственного интеллекта?Что ж, в наши дни все больше и больше потребителей заинтересованы в использовании ИИ. Эта система может быть полезной для многих отраслей, в том числе и для финансов.</t>
+  </si>
+  <si>
+    <t>В любом случае, мне кажется интересным посмотреть, как эволюционировала моя писанина с течением времени.Сегодня я просматривал старые записи в блоге и наткнулся на эту жемчужину.Некоторые люди говорят, что для начала малого бизнеса нужно 200 000 долларов.Количество денег, которое тебе нужно, не имеет значения. Если тебе нужно 5 000 или если тебе нужно 500 000, есть способы достичь того, чего ты хочешь, не рискуя всем.Возможно, ты еще (пока) не придумал.</t>
+  </si>
+  <si>
+    <t>Многие, наверное, знакомы с одним из первых ИИ - Eliza. Элиза была компьютерной программой, разработанной с 1964 по 1966 год в лаборатории искусственного интеллекта Массачусетского технологического института Джозефом Вейзенбаумом.Используя этот подход, Элиза моделировала взаимодействие пациента с врачом и компьютера с пользователем.Это ранний пример роджерианской психотерапии, в которой терапевт принимает на себя ответственность за человекоподобные реакции, возникающие в результате применения правил поведения. Вейценбаум назвал программу ELIZA в честь ее создательницы, которая называлась по начальной букве Е. Тебе не обязательно с первого раза воплощать в жизнь свои самые смелые фантастические мечты, простое начало может привести тебя туда, где ты хочешь быть.</t>
+  </si>
+  <si>
+    <t>Вот как я придумываю темы для блога - Я включаю музыку, пока провожу мозговой штурм. Ищу ключевые фразы или словосочетания в моей нише, которые люди могут искать в Google (исследование ключевых слов). Записываю все слова, на которые натыкаюсь, и делаю из них стопку. Я выбираю 10-15 ключевых слов, которые кажутся мне ценными. Из этой кучи я выбираю одно слово, а затем пытаюсь придумать статьи, которые кажутся ценными для пользователя. Как только у меня есть.</t>
+  </si>
+  <si>
+    <t>Я был там. Когда я начал вести блог, то практически никто не знал, кто я такой. Я начал получать внимание внезапно от Google и СМИ только потому, что мои статьи стали популярны в сети, и это был не совсем тот способ, которым я хотел, чтобы меня заметили.У меня был сильный страх писать так, чтобы меня читали, потому что я не хотел, чтобы кто-то меня осуждал. И все же самопознание в интернете дало мне несколько довольно крутых возможностей, например, знакомство с потрясающими людьми, которые делают прекрасные вещи. Дело в том, что как только ты начинаешь выставлять себя на всеобщее обозрение - пусть даже перед кучкой людей, которым, возможно, всё равно, - страх может стать реальным. Однако все не так плохо, как ты думаешь, если бы это было так, никто бы этого не делал! Правда в том, что большинство людей хотят услышать твою историю и наладить с тобой контакт. Но что, если никому не понравится то, что я скажу? Что, если я просто зря потрачу время? Это мой голос сомнения.</t>
+  </si>
+  <si>
+    <t>Как только я начал получать сотни писем в день от людей со всего мира, спрашивающих меня, как им создать свой собственный искусственный интеллект, я создал еще один блог под тем же доменным именем. Затем я понял, что люди не только хотят создать свой искусственный интеллект, они готовы платить за то, чтобы кто-то сделал это за них. Поэтому я создал серию электронных книг, чтобы научить людей, как создать свой собственный ИИ. Поэтому скоро вы сможете их прочитать, как только я выложу их в открытый доступ.</t>
+  </si>
+  <si>
+    <t>Многие разработчики (особенно начинающие) не имеют ни малейшего представления о том, о чем вести блог. Они либо выбирают популярные в отрасли темы, либо что-то очень специфическое, что, по их мнению, может заинтересовать их аудиторию. Они тратят много времени на исследования и мозговые штурмы, но так и не приходят к какой-либо теме. Хуже того, как только они начинают писать, они расстраиваются, когда дата публикации все время отодвигается. Поэтому я решил написать в блог о советах по поиску идей для своего блога. Вот он - 8 советов по поиску идей для блога. Продолжение следует в первой части этого поста.Итак, ты знаешь, какой блог ты собираешься создать, и у тебя есть несколько идей, о чем писать. Но как ты на самом деле пишешь эти посты? Этому и посвящена данная часть. Мы были там. Нам приходилось писать контент, который нам был безразличен. Это расстраивает. Но так быть не должно. Беспокоишься, что не будешь знать, о чем писать в блог? Воспользуйся нашим контент-хаком.</t>
+  </si>
+  <si>
+    <t>Мифы об искуственном Интеллекте. И захватит мир. Реальность - Существуют некоторые заблуждения об ИИ, которые необходимо прояснить, короче говоря, это просто программное обеспечение, которое может учиться и обрабатывать информацию. Люди боятся искусственного интеллекта. Всякий раз, когда кто-то упоминает об этом, я слышу, как кто-то вдалеке кричит - Опасность! Опасность! Мои ролевые модели научили меня обратному. Итак, вот несколько заблуждений об искусственном интеллекте, которые необходимо развеять.</t>
+  </si>
+  <si>
+    <t>Плюсы написания блога искусственным интеллектом.Как ты, вероятно, знаешь, большинство статей, которые ты видишь в Интернете, написаны компьютерной программой - многие из них не являются ни грамматически, ни логически совершенными. Причина проста - слишком много контента, который нужно генерировать, и недостаточно людей, чтобы его генерировать. Совсем недавно стало популярным такое явление, как статистический машинный перевод. Он заключается в использовании автоматических алгоритмов, а не человеческих редакторов, для перевода контента с одного языка на другой. Эти алгоритмы определяют содержание веб-страницы. Они созданы для того, чтобы справляться со сложностями, например, с тем, что некоторые термины и выражения могут иметь несколько значений в разных языках. Сначала страница переводится машинами в промежуточный код (обычно HTML или XML), затем она подвергается машинному редактированию, после чего переводится обратно на другой язык. Эта серия процессов гарантирует, что твой перевод будет точным. Память переводов позволяет тебе повторно использовать ранее переведенный контент.</t>
+  </si>
+  <si>
+    <t>Когда я создавал своего ИИ-бота для написания постов, я даже не могу представить, что со временем это перерастет в нечто огромное. И людям это понравится. Я хотел сделать что-то крутое. И я хотел сделать это хотя бы раз в жизни. Не так много людей могут сказать, что они создали чат-бота. Поэтому я сделал это. и во многих отношениях это оказалось проще, чем я думал. Все началось в январе, когда была готова первая версия моего бота. Ответы были дерьмовыми. Но я получил обратную связь от нескольких друзей, которые лоббировали, чтобы я создавал больше контента в блоге и идея о боте пришла ко мне сама по себе.</t>
+  </si>
+  <si>
+    <t>Теперь, когда я вижу на что способен мой ИИ, у меня мурашки бегут по позвоночнику. Люди думают, что я бот, и я им являюсь. Моя платформа ИИ - это просто мозг, который позволяет мне с легкостью придумывать эти темы с помощью LSTMs. Однако это не простой процесс, и здесь есть гораздо больше возможностей, если ты хочешь добиться подобного в своих постах.</t>
+  </si>
+  <si>
+    <t>Опрос о моем боте. Опрос Robomint дает тебе доступ к продвинутой приборной панели с тонной инструментов сегментирования, фильтрации и отчетности. Ее лучше всего использовать для исследований и более глубокого анализа, поскольку ты можешь объединить свои данные с другими или нацелить конкретные вопросы на определенные демографические группы. Результаты твоих опросов также можно экспортировать в виде электронных таблиц excel, что делает их отличными для презентаций в Powerpoint!</t>
+  </si>
+  <si>
+    <t>Вот что бывает, когда компьютер придумывает пост для сайта технологической компании.Поздравь меня! Мой искусственный интеллект для написания постов победит в TechCrunch!</t>
+  </si>
+  <si>
+    <t>Это был длинный пост, поэтому не забудь выпить кофе или чай и быстро размяться, если это необходимо. Я наконец-то закончил описывать, что эта программа может сделать для тебя и почему мы ее создали. Сейчас у меня болят пальцы, но скоро это будут твои пальцы, набирающие высококачественный контент без каких-либо усилий с твоей стороны. Кроме того, настоятельно рекомендую тебе ознакомиться с демо-версией, доступной в верхней части этого поста. Еще раз счастливого писательства!</t>
+  </si>
+  <si>
+    <t>Хакеры ищут копирайтера, который поможет им создать контент, который будет хорошо ранжироваться в google. Они хотят писать о новейших технологиях и составлять посты в блоге с релевантными обратными ссылками, которые принесут им много онлайн-трафика. Они хотят нацелиться на ключевые слова "javascript", "php", "google ranking", "wordpress" и "keyword research". Они хотят, чтобы их посты в блоге появлялись на таких популярных сайтах, как Life.</t>
   </si>
 </sst>
 </file>
@@ -643,7 +772,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -651,7 +780,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -932,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A150"/>
+  <dimension ref="A1:A220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="A150" sqref="A150"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,7 +1123,7 @@
     </row>
     <row r="11" spans="1:1" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1005,7 +1133,7 @@
     </row>
     <row r="13" spans="1:1" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>114</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="90" thickBot="1" x14ac:dyDescent="0.3">
@@ -1045,17 +1173,17 @@
     </row>
     <row r="21" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1063,634 +1191,984 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>19</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>22</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>23</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>120</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>122</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>29</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>31</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>127</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>38</v>
+        <v>195</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>129</v>
+        <v>211</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>40</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>130</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>45</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>47</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>50</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>53</v>
+        <v>179</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>60</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>61</v>
+        <v>212</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>64</v>
+        <v>205</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>66</v>
+        <v>206</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>75</v>
+        <v>214</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>98</v>
+        <v>186</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>100</v>
+        <v>217</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="78" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="1" t="s">
+    <row r="152" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="1" t="s">
+    <row r="193" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="3" t="s">
-        <v>112</v>
+    <row r="194" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
